--- a/BERTopic/EXCEL_FA/problem/entity_topic_info_FA_전체.xlsx
+++ b/BERTopic/EXCEL_FA/problem/entity_topic_info_FA_전체.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaengJiwoo\.vscode\KISTI-intern\2025_KISTI-intern\BERTopic\EXCEL_FA\problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6F5376-2598-43E9-8A22-7302FC75E854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E811CD-962D-445D-9179-D66D0B22F94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51780" yWindow="45" windowWidth="15660" windowHeight="14685" tabRatio="822" firstSheet="2" activeTab="4" xr2:uid="{FA70A0A6-6FBD-4BFB-952E-EAE9960E49D2}"/>
+    <workbookView xWindow="14180" yWindow="30" windowWidth="11420" windowHeight="14690" tabRatio="822" firstSheet="1" activeTab="1" xr2:uid="{FA70A0A6-6FBD-4BFB-952E-EAE9960E49D2}"/>
   </bookViews>
   <sheets>
     <sheet name="entity_topic_info_FA1" sheetId="1" r:id="rId1"/>
@@ -11707,9 +11707,6 @@
     <t>130_보안사건_방지_무방비</t>
   </si>
   <si>
-    <t>131_해결책_충분함_현재문제</t>
-  </si>
-  <si>
     <t>132_목욕_욕조_배변_가구</t>
   </si>
   <si>
@@ -14764,6 +14761,10 @@
   </si>
   <si>
     <t>7_비상사태_비상사태들_사고_겪는중</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>131_해결책_충분함_현재_문제</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -15920,8 +15921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CE4818-2C8D-404C-9C9E-AFE122C271D1}">
   <dimension ref="A1:F319"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -29397,10 +29398,10 @@
         <v>16</v>
       </c>
       <c r="C35" t="s">
+        <v>4900</v>
+      </c>
+      <c r="D35" t="s">
         <v>4901</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4902</v>
       </c>
       <c r="E35" t="s">
         <v>2320</v>
@@ -34919,8 +34920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC6A702-AA5D-43E3-BA2B-18E2CD06F2ED}">
   <dimension ref="A1:F313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -35114,10 +35115,10 @@
         <v>56</v>
       </c>
       <c r="C10" t="s">
+        <v>4904</v>
+      </c>
+      <c r="D10" t="s">
         <v>4905</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4906</v>
       </c>
       <c r="E10" t="s">
         <v>3177</v>
@@ -36114,10 +36115,10 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
+        <v>4902</v>
+      </c>
+      <c r="D60" t="s">
         <v>4903</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4904</v>
       </c>
       <c r="E60" t="s">
         <v>3275</v>
@@ -37597,7 +37598,7 @@
         <v>3405</v>
       </c>
       <c r="D134" t="s">
-        <v>3889</v>
+        <v>4906</v>
       </c>
       <c r="E134" t="s">
         <v>2521</v>
@@ -37617,7 +37618,7 @@
         <v>3406</v>
       </c>
       <c r="D135" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="E135" t="s">
         <v>3407</v>
@@ -37637,7 +37638,7 @@
         <v>3409</v>
       </c>
       <c r="D136" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="E136" t="s">
         <v>2482</v>
@@ -37657,7 +37658,7 @@
         <v>3410</v>
       </c>
       <c r="D137" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="E137" t="s">
         <v>2492</v>
@@ -37677,7 +37678,7 @@
         <v>3411</v>
       </c>
       <c r="D138" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="E138" t="s">
         <v>3412</v>
@@ -37697,7 +37698,7 @@
         <v>3413</v>
       </c>
       <c r="D139" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="E139" t="s">
         <v>3414</v>
@@ -37717,7 +37718,7 @@
         <v>3416</v>
       </c>
       <c r="D140" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="E140" t="s">
         <v>528</v>
@@ -37737,7 +37738,7 @@
         <v>3417</v>
       </c>
       <c r="D141" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="E141" t="s">
         <v>537</v>
@@ -37757,7 +37758,7 @@
         <v>3418</v>
       </c>
       <c r="D142" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="E142" t="s">
         <v>3419</v>
@@ -37777,7 +37778,7 @@
         <v>3420</v>
       </c>
       <c r="D143" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="E143" t="s">
         <v>501</v>
@@ -37797,7 +37798,7 @@
         <v>3421</v>
       </c>
       <c r="D144" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="E144" t="s">
         <v>474</v>
@@ -37817,7 +37818,7 @@
         <v>3422</v>
       </c>
       <c r="D145" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="E145" t="s">
         <v>3423</v>
@@ -37837,7 +37838,7 @@
         <v>3424</v>
       </c>
       <c r="D146" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="E146" t="s">
         <v>3425</v>
@@ -37857,7 +37858,7 @@
         <v>3426</v>
       </c>
       <c r="D147" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="E147" t="s">
         <v>471</v>
@@ -37877,7 +37878,7 @@
         <v>3427</v>
       </c>
       <c r="D148" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="E148" t="s">
         <v>3428</v>
@@ -37897,7 +37898,7 @@
         <v>3430</v>
       </c>
       <c r="D149" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="E149" t="s">
         <v>3431</v>
@@ -37917,7 +37918,7 @@
         <v>3432</v>
       </c>
       <c r="D150" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="E150" t="s">
         <v>3433</v>
@@ -37937,7 +37938,7 @@
         <v>3434</v>
       </c>
       <c r="D151" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="E151" t="s">
         <v>2525</v>
@@ -37957,7 +37958,7 @@
         <v>3435</v>
       </c>
       <c r="D152" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="E152" t="s">
         <v>3436</v>
@@ -37977,7 +37978,7 @@
         <v>3437</v>
       </c>
       <c r="D153" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="E153" t="s">
         <v>453</v>
@@ -37997,7 +37998,7 @@
         <v>3438</v>
       </c>
       <c r="D154" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="E154" t="s">
         <v>3439</v>
@@ -38017,7 +38018,7 @@
         <v>3441</v>
       </c>
       <c r="D155" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="E155" t="s">
         <v>3442</v>
@@ -38037,7 +38038,7 @@
         <v>3443</v>
       </c>
       <c r="D156" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="E156" t="s">
         <v>1626</v>
@@ -38057,7 +38058,7 @@
         <v>3444</v>
       </c>
       <c r="D157" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="E157" t="s">
         <v>450</v>
@@ -38077,7 +38078,7 @@
         <v>3445</v>
       </c>
       <c r="D158" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="E158" t="s">
         <v>3446</v>
@@ -38097,7 +38098,7 @@
         <v>3448</v>
       </c>
       <c r="D159" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="E159" t="s">
         <v>468</v>
@@ -38117,7 +38118,7 @@
         <v>3449</v>
       </c>
       <c r="D160" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="E160" t="s">
         <v>405</v>
@@ -38137,7 +38138,7 @@
         <v>3450</v>
       </c>
       <c r="D161" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="E161" t="s">
         <v>477</v>
@@ -38157,7 +38158,7 @@
         <v>3451</v>
       </c>
       <c r="D162" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="E162" t="s">
         <v>3452</v>
@@ -38177,7 +38178,7 @@
         <v>3454</v>
       </c>
       <c r="D163" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="E163" t="s">
         <v>456</v>
@@ -38197,7 +38198,7 @@
         <v>3455</v>
       </c>
       <c r="D164" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="E164" t="s">
         <v>3456</v>
@@ -38217,7 +38218,7 @@
         <v>3457</v>
       </c>
       <c r="D165" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="E165" t="s">
         <v>2543</v>
@@ -38237,7 +38238,7 @@
         <v>3459</v>
       </c>
       <c r="D166" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="E166" t="s">
         <v>3460</v>
@@ -38257,7 +38258,7 @@
         <v>3462</v>
       </c>
       <c r="D167" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="E167" t="s">
         <v>3463</v>
@@ -38277,7 +38278,7 @@
         <v>3464</v>
       </c>
       <c r="D168" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="E168" t="s">
         <v>3465</v>
@@ -38297,7 +38298,7 @@
         <v>3467</v>
       </c>
       <c r="D169" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="E169" t="s">
         <v>3468</v>
@@ -38337,7 +38338,7 @@
         <v>3470</v>
       </c>
       <c r="D171" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="E171" t="s">
         <v>3471</v>
@@ -38357,7 +38358,7 @@
         <v>3472</v>
       </c>
       <c r="D172" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="E172" t="s">
         <v>3473</v>
@@ -38377,7 +38378,7 @@
         <v>3474</v>
       </c>
       <c r="D173" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="E173" t="s">
         <v>417</v>
@@ -38397,7 +38398,7 @@
         <v>3475</v>
       </c>
       <c r="D174" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="E174" t="s">
         <v>3476</v>
@@ -38417,7 +38418,7 @@
         <v>3477</v>
       </c>
       <c r="D175" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="E175" t="s">
         <v>3478</v>
@@ -38437,7 +38438,7 @@
         <v>3479</v>
       </c>
       <c r="D176" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="E176" t="s">
         <v>3480</v>
@@ -38457,7 +38458,7 @@
         <v>3482</v>
       </c>
       <c r="D177" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="E177" t="s">
         <v>3483</v>
@@ -38477,7 +38478,7 @@
         <v>3484</v>
       </c>
       <c r="D178" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="E178" t="s">
         <v>411</v>
@@ -38497,7 +38498,7 @@
         <v>3485</v>
       </c>
       <c r="D179" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="E179" t="s">
         <v>3486</v>
@@ -38517,7 +38518,7 @@
         <v>3488</v>
       </c>
       <c r="D180" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="E180" t="s">
         <v>3489</v>
@@ -38537,7 +38538,7 @@
         <v>3490</v>
       </c>
       <c r="D181" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="E181" t="s">
         <v>402</v>
@@ -38557,7 +38558,7 @@
         <v>3491</v>
       </c>
       <c r="D182" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="E182" t="s">
         <v>444</v>
@@ -38577,7 +38578,7 @@
         <v>3492</v>
       </c>
       <c r="D183" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="E183" t="s">
         <v>3493</v>
@@ -38597,7 +38598,7 @@
         <v>3494</v>
       </c>
       <c r="D184" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="E184" t="s">
         <v>3495</v>
@@ -38617,7 +38618,7 @@
         <v>3497</v>
       </c>
       <c r="D185" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="E185" t="s">
         <v>3498</v>
@@ -38637,7 +38638,7 @@
         <v>3500</v>
       </c>
       <c r="D186" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="E186" t="s">
         <v>3501</v>
@@ -38657,7 +38658,7 @@
         <v>3503</v>
       </c>
       <c r="D187" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="E187" t="s">
         <v>3504</v>
@@ -38677,7 +38678,7 @@
         <v>3506</v>
       </c>
       <c r="D188" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="E188" t="s">
         <v>2655</v>
@@ -38697,7 +38698,7 @@
         <v>3507</v>
       </c>
       <c r="D189" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="E189" t="s">
         <v>336</v>
@@ -38717,7 +38718,7 @@
         <v>3508</v>
       </c>
       <c r="D190" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="E190" t="s">
         <v>3509</v>
@@ -38737,7 +38738,7 @@
         <v>3510</v>
       </c>
       <c r="D191" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="E191" t="s">
         <v>3511</v>
@@ -38757,7 +38758,7 @@
         <v>3512</v>
       </c>
       <c r="D192" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="E192" t="s">
         <v>312</v>
@@ -38777,7 +38778,7 @@
         <v>3513</v>
       </c>
       <c r="D193" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="E193" t="s">
         <v>3514</v>
@@ -38797,7 +38798,7 @@
         <v>3516</v>
       </c>
       <c r="D194" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="E194" t="s">
         <v>3517</v>
@@ -38817,7 +38818,7 @@
         <v>3519</v>
       </c>
       <c r="D195" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="E195" t="s">
         <v>264</v>
@@ -38837,7 +38838,7 @@
         <v>3520</v>
       </c>
       <c r="D196" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="E196" t="s">
         <v>2598</v>
@@ -38857,7 +38858,7 @@
         <v>3521</v>
       </c>
       <c r="D197" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="E197" t="s">
         <v>2591</v>
@@ -38877,7 +38878,7 @@
         <v>3522</v>
       </c>
       <c r="D198" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="E198" t="s">
         <v>2637</v>
@@ -38897,7 +38898,7 @@
         <v>3523</v>
       </c>
       <c r="D199" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="E199" t="s">
         <v>3524</v>
@@ -38917,7 +38918,7 @@
         <v>3526</v>
       </c>
       <c r="D200" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="E200" t="s">
         <v>2575</v>
@@ -38937,7 +38938,7 @@
         <v>3527</v>
       </c>
       <c r="D201" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="E201" t="s">
         <v>3528</v>
@@ -38957,7 +38958,7 @@
         <v>3530</v>
       </c>
       <c r="D202" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="E202" t="s">
         <v>3531</v>
@@ -38977,7 +38978,7 @@
         <v>3532</v>
       </c>
       <c r="D203" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="E203" t="s">
         <v>3533</v>
@@ -38997,7 +38998,7 @@
         <v>3535</v>
       </c>
       <c r="D204" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="E204" t="s">
         <v>3536</v>
@@ -39017,7 +39018,7 @@
         <v>3538</v>
       </c>
       <c r="D205" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="E205" t="s">
         <v>3539</v>
@@ -39037,7 +39038,7 @@
         <v>3540</v>
       </c>
       <c r="D206" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="E206" t="s">
         <v>3541</v>
@@ -39057,7 +39058,7 @@
         <v>3542</v>
       </c>
       <c r="D207" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="E207" t="s">
         <v>1668</v>
@@ -39077,7 +39078,7 @@
         <v>3543</v>
       </c>
       <c r="D208" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="E208" t="s">
         <v>2605</v>
@@ -39097,7 +39098,7 @@
         <v>3544</v>
       </c>
       <c r="D209" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="E209" t="s">
         <v>279</v>
@@ -39117,7 +39118,7 @@
         <v>3545</v>
       </c>
       <c r="D210" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="E210" t="s">
         <v>3546</v>
@@ -39137,7 +39138,7 @@
         <v>3548</v>
       </c>
       <c r="D211" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="E211" t="s">
         <v>282</v>
@@ -39157,7 +39158,7 @@
         <v>3549</v>
       </c>
       <c r="D212" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="E212" t="s">
         <v>390</v>
@@ -39177,7 +39178,7 @@
         <v>3550</v>
       </c>
       <c r="D213" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="E213" t="s">
         <v>3551</v>
@@ -39197,7 +39198,7 @@
         <v>3552</v>
       </c>
       <c r="D214" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="E214" t="s">
         <v>3553</v>
@@ -39217,7 +39218,7 @@
         <v>3555</v>
       </c>
       <c r="D215" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="E215" t="s">
         <v>3556</v>
@@ -39237,7 +39238,7 @@
         <v>3558</v>
       </c>
       <c r="D216" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="E216" t="s">
         <v>345</v>
@@ -39257,7 +39258,7 @@
         <v>3559</v>
       </c>
       <c r="D217" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="E217" t="s">
         <v>366</v>
@@ -39277,7 +39278,7 @@
         <v>3560</v>
       </c>
       <c r="D218" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="E218" t="s">
         <v>3561</v>
@@ -39297,7 +39298,7 @@
         <v>3563</v>
       </c>
       <c r="D219" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="E219" t="s">
         <v>3564</v>
@@ -39317,7 +39318,7 @@
         <v>3565</v>
       </c>
       <c r="D220" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="E220" t="s">
         <v>324</v>
@@ -39337,7 +39338,7 @@
         <v>3566</v>
       </c>
       <c r="D221" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="E221" t="s">
         <v>3567</v>
@@ -39357,7 +39358,7 @@
         <v>3568</v>
       </c>
       <c r="D222" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="E222" t="s">
         <v>3569</v>
@@ -39377,7 +39378,7 @@
         <v>3571</v>
       </c>
       <c r="D223" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="E223" t="s">
         <v>2669</v>
@@ -39397,7 +39398,7 @@
         <v>3572</v>
       </c>
       <c r="D224" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="E224" t="s">
         <v>3573</v>
@@ -39417,7 +39418,7 @@
         <v>3575</v>
       </c>
       <c r="D225" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="E225" t="s">
         <v>261</v>
@@ -39437,7 +39438,7 @@
         <v>3576</v>
       </c>
       <c r="D226" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="E226" t="s">
         <v>3577</v>
@@ -39457,7 +39458,7 @@
         <v>3579</v>
       </c>
       <c r="D227" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="E227" t="s">
         <v>3580</v>
@@ -39477,7 +39478,7 @@
         <v>3582</v>
       </c>
       <c r="D228" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="E228" t="s">
         <v>3583</v>
@@ -39497,7 +39498,7 @@
         <v>3585</v>
       </c>
       <c r="D229" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="E229" t="s">
         <v>3586</v>
@@ -39517,7 +39518,7 @@
         <v>3588</v>
       </c>
       <c r="D230" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="E230" t="s">
         <v>3589</v>
@@ -39537,7 +39538,7 @@
         <v>3590</v>
       </c>
       <c r="D231" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="E231" t="s">
         <v>2586</v>
@@ -39557,7 +39558,7 @@
         <v>3591</v>
       </c>
       <c r="D232" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="E232" t="s">
         <v>2645</v>
@@ -39577,7 +39578,7 @@
         <v>3592</v>
       </c>
       <c r="D233" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="E233" t="s">
         <v>1721</v>
@@ -39617,7 +39618,7 @@
         <v>3593</v>
       </c>
       <c r="D235" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="E235" t="s">
         <v>1864</v>
@@ -39637,7 +39638,7 @@
         <v>3594</v>
       </c>
       <c r="D236" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="E236" t="s">
         <v>3595</v>
@@ -39657,7 +39658,7 @@
         <v>3597</v>
       </c>
       <c r="D237" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="E237" t="s">
         <v>3598</v>
@@ -39677,7 +39678,7 @@
         <v>3600</v>
       </c>
       <c r="D238" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="E238" t="s">
         <v>3601</v>
@@ -39697,7 +39698,7 @@
         <v>3602</v>
       </c>
       <c r="D239" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="E239" t="s">
         <v>213</v>
@@ -39717,7 +39718,7 @@
         <v>3603</v>
       </c>
       <c r="D240" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="E240" t="s">
         <v>3604</v>
@@ -39737,7 +39738,7 @@
         <v>3606</v>
       </c>
       <c r="D241" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="E241" t="s">
         <v>2713</v>
@@ -39757,7 +39758,7 @@
         <v>3607</v>
       </c>
       <c r="D242" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="E242" t="s">
         <v>2667</v>
@@ -39777,7 +39778,7 @@
         <v>3608</v>
       </c>
       <c r="D243" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="E243" t="s">
         <v>174</v>
@@ -39797,7 +39798,7 @@
         <v>3609</v>
       </c>
       <c r="D244" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="E244" t="s">
         <v>3610</v>
@@ -39817,7 +39818,7 @@
         <v>3611</v>
       </c>
       <c r="D245" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="E245" t="s">
         <v>189</v>
@@ -39837,7 +39838,7 @@
         <v>3612</v>
       </c>
       <c r="D246" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="E246" t="s">
         <v>3613</v>
@@ -39857,7 +39858,7 @@
         <v>3615</v>
       </c>
       <c r="D247" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="E247" t="s">
         <v>3616</v>
@@ -39877,7 +39878,7 @@
         <v>3618</v>
       </c>
       <c r="D248" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="E248" t="s">
         <v>3619</v>
@@ -39897,7 +39898,7 @@
         <v>3621</v>
       </c>
       <c r="D249" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="E249" t="s">
         <v>1778</v>
@@ -39917,7 +39918,7 @@
         <v>3623</v>
       </c>
       <c r="D250" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="E250" t="s">
         <v>3624</v>
@@ -39937,7 +39938,7 @@
         <v>3626</v>
       </c>
       <c r="D251" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="E251" t="s">
         <v>2678</v>
@@ -39957,7 +39958,7 @@
         <v>3627</v>
       </c>
       <c r="D252" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="E252" t="s">
         <v>3628</v>
@@ -39977,7 +39978,7 @@
         <v>3630</v>
       </c>
       <c r="D253" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="E253" t="s">
         <v>3631</v>
@@ -39997,7 +39998,7 @@
         <v>3633</v>
       </c>
       <c r="D254" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="E254" t="s">
         <v>1768</v>
@@ -40017,7 +40018,7 @@
         <v>3634</v>
       </c>
       <c r="D255" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="E255" t="s">
         <v>1763</v>
@@ -40037,7 +40038,7 @@
         <v>3635</v>
       </c>
       <c r="D256" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="E256" t="s">
         <v>3636</v>
@@ -40057,7 +40058,7 @@
         <v>3638</v>
       </c>
       <c r="D257" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="E257" t="s">
         <v>2688</v>
@@ -40077,7 +40078,7 @@
         <v>3640</v>
       </c>
       <c r="D258" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="E258" t="s">
         <v>90</v>
@@ -40097,7 +40098,7 @@
         <v>3641</v>
       </c>
       <c r="D259" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="E259" t="s">
         <v>162</v>
@@ -40117,7 +40118,7 @@
         <v>3642</v>
       </c>
       <c r="D260" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="E260" t="s">
         <v>57</v>
@@ -40137,7 +40138,7 @@
         <v>3644</v>
       </c>
       <c r="D261" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="E261" t="s">
         <v>123</v>
@@ -40157,7 +40158,7 @@
         <v>3645</v>
       </c>
       <c r="D262" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="E262" t="s">
         <v>3646</v>
@@ -40177,7 +40178,7 @@
         <v>3648</v>
       </c>
       <c r="D263" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="E263" t="s">
         <v>3649</v>
@@ -40197,7 +40198,7 @@
         <v>3651</v>
       </c>
       <c r="D264" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="E264" t="s">
         <v>156</v>
@@ -40217,7 +40218,7 @@
         <v>3652</v>
       </c>
       <c r="D265" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="E265" t="s">
         <v>216</v>
@@ -40237,7 +40238,7 @@
         <v>3653</v>
       </c>
       <c r="D266" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="E266" t="s">
         <v>3654</v>
@@ -40257,7 +40258,7 @@
         <v>3655</v>
       </c>
       <c r="D267" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="E267" t="s">
         <v>3656</v>
@@ -40277,7 +40278,7 @@
         <v>3658</v>
       </c>
       <c r="D268" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="E268" t="s">
         <v>2792</v>
@@ -40297,7 +40298,7 @@
         <v>3659</v>
       </c>
       <c r="D269" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="E269" t="s">
         <v>138</v>
@@ -40317,7 +40318,7 @@
         <v>3660</v>
       </c>
       <c r="D270" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="E270" t="s">
         <v>3661</v>
@@ -40337,7 +40338,7 @@
         <v>3663</v>
       </c>
       <c r="D271" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="E271" t="s">
         <v>102</v>
@@ -40357,7 +40358,7 @@
         <v>3665</v>
       </c>
       <c r="D272" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="E272" t="s">
         <v>132</v>
@@ -40377,7 +40378,7 @@
         <v>3666</v>
       </c>
       <c r="D273" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="E273" t="s">
         <v>3667</v>
@@ -40397,7 +40398,7 @@
         <v>3669</v>
       </c>
       <c r="D274" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="E274" t="s">
         <v>3670</v>
@@ -40417,7 +40418,7 @@
         <v>3671</v>
       </c>
       <c r="D275" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="E275" t="s">
         <v>3672</v>
@@ -40437,7 +40438,7 @@
         <v>3674</v>
       </c>
       <c r="D276" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="E276" t="s">
         <v>2749</v>
@@ -40457,7 +40458,7 @@
         <v>3675</v>
       </c>
       <c r="D277" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="E277" t="s">
         <v>2764</v>
@@ -40477,7 +40478,7 @@
         <v>3676</v>
       </c>
       <c r="D278" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="E278" t="s">
         <v>3677</v>
@@ -40497,7 +40498,7 @@
         <v>3678</v>
       </c>
       <c r="D279" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="E279" t="s">
         <v>2767</v>
@@ -40517,7 +40518,7 @@
         <v>3679</v>
       </c>
       <c r="D280" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="E280" t="s">
         <v>237</v>
@@ -40537,7 +40538,7 @@
         <v>3680</v>
       </c>
       <c r="D281" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
       <c r="E281" t="s">
         <v>114</v>
@@ -40557,7 +40558,7 @@
         <v>3681</v>
       </c>
       <c r="D282" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="E282" t="s">
         <v>3682</v>
@@ -40577,7 +40578,7 @@
         <v>3684</v>
       </c>
       <c r="D283" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="E283" t="s">
         <v>3685</v>
@@ -40597,7 +40598,7 @@
         <v>3687</v>
       </c>
       <c r="D284" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="E284" t="s">
         <v>3688</v>
@@ -40617,7 +40618,7 @@
         <v>3690</v>
       </c>
       <c r="D285" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="E285" t="s">
         <v>3691</v>
@@ -40637,7 +40638,7 @@
         <v>3693</v>
       </c>
       <c r="D286" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="E286" t="s">
         <v>2801</v>
@@ -40657,7 +40658,7 @@
         <v>3694</v>
       </c>
       <c r="D287" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="E287" t="s">
         <v>2710</v>
@@ -40677,7 +40678,7 @@
         <v>3695</v>
       </c>
       <c r="D288" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
       <c r="E288" t="s">
         <v>63</v>
@@ -40697,7 +40698,7 @@
         <v>3696</v>
       </c>
       <c r="D289" t="s">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="E289" t="s">
         <v>3697</v>
@@ -40717,7 +40718,7 @@
         <v>3698</v>
       </c>
       <c r="D290" t="s">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="E290" t="s">
         <v>2707</v>
@@ -40737,7 +40738,7 @@
         <v>3699</v>
       </c>
       <c r="D291" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="E291" t="s">
         <v>3700</v>
@@ -40757,7 +40758,7 @@
         <v>3701</v>
       </c>
       <c r="D292" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="E292" t="s">
         <v>150</v>
@@ -40777,7 +40778,7 @@
         <v>3702</v>
       </c>
       <c r="D293" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="E293" t="s">
         <v>207</v>
@@ -40797,7 +40798,7 @@
         <v>3703</v>
       </c>
       <c r="D294" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="E294" t="s">
         <v>3704</v>
@@ -40817,7 +40818,7 @@
         <v>3706</v>
       </c>
       <c r="D295" t="s">
-        <v>4048</v>
+        <v>4047</v>
       </c>
       <c r="E295" t="s">
         <v>3707</v>
@@ -40837,7 +40838,7 @@
         <v>3709</v>
       </c>
       <c r="D296" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="E296" t="s">
         <v>3710</v>
@@ -40857,7 +40858,7 @@
         <v>3712</v>
       </c>
       <c r="D297" t="s">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="E297" t="s">
         <v>3713</v>
@@ -40877,7 +40878,7 @@
         <v>3715</v>
       </c>
       <c r="D298" t="s">
-        <v>4051</v>
+        <v>4050</v>
       </c>
       <c r="E298" t="s">
         <v>3716</v>
@@ -40897,7 +40898,7 @@
         <v>3718</v>
       </c>
       <c r="D299" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="E299" t="s">
         <v>2698</v>
@@ -40917,7 +40918,7 @@
         <v>3720</v>
       </c>
       <c r="D300" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="E300" t="s">
         <v>3721</v>
@@ -40937,7 +40938,7 @@
         <v>3723</v>
       </c>
       <c r="D301" t="s">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="E301" t="s">
         <v>3724</v>
@@ -40957,7 +40958,7 @@
         <v>3726</v>
       </c>
       <c r="D302" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="E302" t="s">
         <v>3727</v>
@@ -40977,7 +40978,7 @@
         <v>3729</v>
       </c>
       <c r="D303" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="E303" t="s">
         <v>3730</v>
@@ -40997,7 +40998,7 @@
         <v>3732</v>
       </c>
       <c r="D304" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="E304" t="s">
         <v>3733</v>
@@ -41017,7 +41018,7 @@
         <v>3735</v>
       </c>
       <c r="D305" t="s">
-        <v>4058</v>
+        <v>4057</v>
       </c>
       <c r="E305" t="s">
         <v>3736</v>
@@ -41037,7 +41038,7 @@
         <v>3738</v>
       </c>
       <c r="D306" t="s">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="E306" t="s">
         <v>3739</v>
@@ -41057,7 +41058,7 @@
         <v>3741</v>
       </c>
       <c r="D307" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="E307" t="s">
         <v>3742</v>
@@ -41077,7 +41078,7 @@
         <v>3744</v>
       </c>
       <c r="D308" t="s">
-        <v>4061</v>
+        <v>4060</v>
       </c>
       <c r="E308" t="s">
         <v>3745</v>
@@ -41097,7 +41098,7 @@
         <v>3747</v>
       </c>
       <c r="D309" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="E309" t="s">
         <v>3748</v>
@@ -41117,7 +41118,7 @@
         <v>3750</v>
       </c>
       <c r="D310" t="s">
-        <v>4063</v>
+        <v>4062</v>
       </c>
       <c r="E310" t="s">
         <v>3751</v>
@@ -41137,7 +41138,7 @@
         <v>3753</v>
       </c>
       <c r="D311" t="s">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="E311" t="s">
         <v>3754</v>
@@ -41157,7 +41158,7 @@
         <v>3756</v>
       </c>
       <c r="D312" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
       <c r="E312" t="s">
         <v>3757</v>
@@ -41177,7 +41178,7 @@
         <v>3759</v>
       </c>
       <c r="D313" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
       <c r="E313" t="s">
         <v>3760</v>
@@ -41231,16 +41232,16 @@
         <v>840</v>
       </c>
       <c r="C2" t="s">
+        <v>4066</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4619</v>
+      </c>
+      <c r="E2" t="s">
         <v>4067</v>
       </c>
-      <c r="D2" t="s">
-        <v>4620</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4068</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4069</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -41251,16 +41252,16 @@
         <v>284</v>
       </c>
       <c r="C3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4620</v>
+      </c>
+      <c r="E3" t="s">
         <v>4070</v>
       </c>
-      <c r="D3" t="s">
-        <v>4621</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>4071</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4072</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -41271,13 +41272,13 @@
         <v>84</v>
       </c>
       <c r="C4" t="s">
+        <v>4072</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4621</v>
+      </c>
+      <c r="E4" t="s">
         <v>4073</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4622</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4074</v>
       </c>
       <c r="F4" t="s">
         <v>2253</v>
@@ -41291,13 +41292,13 @@
         <v>81</v>
       </c>
       <c r="C5" t="s">
+        <v>4074</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4622</v>
+      </c>
+      <c r="E5" t="s">
         <v>4075</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4623</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4076</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -41311,16 +41312,16 @@
         <v>80</v>
       </c>
       <c r="C6" t="s">
+        <v>4076</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4623</v>
+      </c>
+      <c r="E6" t="s">
         <v>4077</v>
       </c>
-      <c r="D6" t="s">
-        <v>4624</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>4078</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4079</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -41331,13 +41332,13 @@
         <v>70</v>
       </c>
       <c r="C7" t="s">
+        <v>4079</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4624</v>
+      </c>
+      <c r="E7" t="s">
         <v>4080</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4625</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4081</v>
       </c>
       <c r="F7" t="s">
         <v>1742</v>
@@ -41351,13 +41352,13 @@
         <v>70</v>
       </c>
       <c r="C8" t="s">
+        <v>4081</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4625</v>
+      </c>
+      <c r="E8" t="s">
         <v>4082</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4626</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4083</v>
       </c>
       <c r="F8" t="s">
         <v>947</v>
@@ -41371,13 +41372,13 @@
         <v>59</v>
       </c>
       <c r="C9" t="s">
+        <v>4083</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4626</v>
+      </c>
+      <c r="E9" t="s">
         <v>4084</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4627</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4085</v>
       </c>
       <c r="F9" t="s">
         <v>777</v>
@@ -41391,16 +41392,16 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
+        <v>4085</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4627</v>
+      </c>
+      <c r="E10" t="s">
         <v>4086</v>
       </c>
-      <c r="D10" t="s">
-        <v>4628</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>4087</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4088</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -41411,16 +41412,16 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
+        <v>4088</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4628</v>
+      </c>
+      <c r="E11" t="s">
         <v>4089</v>
       </c>
-      <c r="D11" t="s">
-        <v>4629</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>4090</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4091</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -41431,16 +41432,16 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4629</v>
+      </c>
+      <c r="E12" t="s">
         <v>4092</v>
       </c>
-      <c r="D12" t="s">
-        <v>4630</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>4093</v>
-      </c>
-      <c r="F12" t="s">
-        <v>4094</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -41451,16 +41452,16 @@
         <v>39</v>
       </c>
       <c r="C13" t="s">
+        <v>4094</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4630</v>
+      </c>
+      <c r="E13" t="s">
         <v>4095</v>
       </c>
-      <c r="D13" t="s">
-        <v>4631</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>4096</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4097</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -41471,13 +41472,13 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
+        <v>4097</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4631</v>
+      </c>
+      <c r="E14" t="s">
         <v>4098</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4632</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4099</v>
       </c>
       <c r="F14" t="s">
         <v>2268</v>
@@ -41491,16 +41492,16 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
+        <v>4099</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4632</v>
+      </c>
+      <c r="E15" t="s">
         <v>4100</v>
       </c>
-      <c r="D15" t="s">
-        <v>4633</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>4101</v>
-      </c>
-      <c r="F15" t="s">
-        <v>4102</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -41511,13 +41512,13 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
+        <v>4102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4633</v>
+      </c>
+      <c r="E16" t="s">
         <v>4103</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4634</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4104</v>
       </c>
       <c r="F16" t="s">
         <v>918</v>
@@ -41537,7 +41538,7 @@
         <v>3776</v>
       </c>
       <c r="E17" t="s">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="F17" t="s">
         <v>921</v>
@@ -41551,13 +41552,13 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
+        <v>4105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4634</v>
+      </c>
+      <c r="E18" t="s">
         <v>4106</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4635</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4107</v>
       </c>
       <c r="F18" t="s">
         <v>2290</v>
@@ -41571,13 +41572,13 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>4107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4635</v>
+      </c>
+      <c r="E19" t="s">
         <v>4108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4636</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4109</v>
       </c>
       <c r="F19" t="s">
         <v>1321</v>
@@ -41591,13 +41592,13 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4636</v>
+      </c>
+      <c r="E20" t="s">
         <v>4110</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4637</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4111</v>
       </c>
       <c r="F20" t="s">
         <v>864</v>
@@ -41611,13 +41612,13 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
+        <v>4111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4637</v>
+      </c>
+      <c r="E21" t="s">
         <v>4112</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4638</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4113</v>
       </c>
       <c r="F21" t="s">
         <v>873</v>
@@ -41631,13 +41632,13 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
+        <v>4113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4638</v>
+      </c>
+      <c r="E22" t="s">
         <v>4114</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4639</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4115</v>
       </c>
       <c r="F22" t="s">
         <v>1380</v>
@@ -41651,13 +41652,13 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
+        <v>4115</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4639</v>
+      </c>
+      <c r="E23" t="s">
         <v>4116</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4640</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4117</v>
       </c>
       <c r="F23" t="s">
         <v>1369</v>
@@ -41671,13 +41672,13 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
+        <v>4117</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4640</v>
+      </c>
+      <c r="E24" t="s">
         <v>4118</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4641</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4119</v>
       </c>
       <c r="F24" t="s">
         <v>870</v>
@@ -41691,16 +41692,16 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="D25" t="s">
-        <v>4642</v>
+        <v>4641</v>
       </c>
       <c r="E25" t="s">
         <v>886</v>
       </c>
       <c r="F25" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -41714,10 +41715,10 @@
         <v>890</v>
       </c>
       <c r="D26" t="s">
-        <v>4643</v>
+        <v>4642</v>
       </c>
       <c r="E26" t="s">
-        <v>4122</v>
+        <v>4121</v>
       </c>
       <c r="F26" t="s">
         <v>888</v>
@@ -41731,16 +41732,16 @@
         <v>19</v>
       </c>
       <c r="C27" t="s">
+        <v>4122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4643</v>
+      </c>
+      <c r="E27" t="s">
         <v>4123</v>
       </c>
-      <c r="D27" t="s">
-        <v>4644</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>4124</v>
-      </c>
-      <c r="F27" t="s">
-        <v>4125</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -41751,13 +41752,13 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
+        <v>4125</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4644</v>
+      </c>
+      <c r="E28" t="s">
         <v>4126</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4645</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4127</v>
       </c>
       <c r="F28" t="s">
         <v>1357</v>
@@ -41771,13 +41772,13 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
+        <v>4127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4645</v>
+      </c>
+      <c r="E29" t="s">
         <v>4128</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4646</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4129</v>
       </c>
       <c r="F29" t="s">
         <v>3211</v>
@@ -41791,13 +41792,13 @@
         <v>17</v>
       </c>
       <c r="C30" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4646</v>
+      </c>
+      <c r="E30" t="s">
         <v>4130</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4647</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4131</v>
       </c>
       <c r="F30" t="s">
         <v>1349</v>
@@ -41811,13 +41812,13 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
+        <v>4131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4647</v>
+      </c>
+      <c r="E31" t="s">
         <v>4132</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4648</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4133</v>
       </c>
       <c r="F31" t="s">
         <v>578</v>
@@ -41831,13 +41832,13 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
+        <v>4133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4648</v>
+      </c>
+      <c r="E32" t="s">
         <v>4134</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4649</v>
-      </c>
-      <c r="E32" t="s">
-        <v>4135</v>
       </c>
       <c r="F32" t="s">
         <v>1486</v>
@@ -41851,13 +41852,13 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
+        <v>4135</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4649</v>
+      </c>
+      <c r="E33" t="s">
         <v>4136</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4650</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4137</v>
       </c>
       <c r="F33" t="s">
         <v>2638</v>
@@ -41871,13 +41872,13 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
+        <v>4137</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4650</v>
+      </c>
+      <c r="E34" t="s">
         <v>4138</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4651</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4139</v>
       </c>
       <c r="F34" t="s">
         <v>332</v>
@@ -41891,13 +41892,13 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
+        <v>4139</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4651</v>
+      </c>
+      <c r="E35" t="s">
         <v>4140</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4652</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4141</v>
       </c>
       <c r="F35" t="s">
         <v>1433</v>
@@ -41931,16 +41932,16 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
+        <v>4141</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4652</v>
+      </c>
+      <c r="E37" t="s">
         <v>4142</v>
       </c>
-      <c r="D37" t="s">
-        <v>4653</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>4143</v>
-      </c>
-      <c r="F37" t="s">
-        <v>4144</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -41951,13 +41952,13 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
+        <v>4144</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4653</v>
+      </c>
+      <c r="E38" t="s">
         <v>4145</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4654</v>
-      </c>
-      <c r="E38" t="s">
-        <v>4146</v>
       </c>
       <c r="F38" t="s">
         <v>1412</v>
@@ -41971,13 +41972,13 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4654</v>
+      </c>
+      <c r="E39" t="s">
         <v>4147</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4655</v>
-      </c>
-      <c r="E39" t="s">
-        <v>4148</v>
       </c>
       <c r="F39" t="s">
         <v>822</v>
@@ -41991,16 +41992,16 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
+        <v>4148</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4655</v>
+      </c>
+      <c r="E40" t="s">
         <v>4149</v>
       </c>
-      <c r="D40" t="s">
-        <v>4656</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>4150</v>
-      </c>
-      <c r="F40" t="s">
-        <v>4151</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -42011,13 +42012,13 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
+        <v>4151</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4656</v>
+      </c>
+      <c r="E41" t="s">
         <v>4152</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4657</v>
-      </c>
-      <c r="E41" t="s">
-        <v>4153</v>
       </c>
       <c r="F41" t="s">
         <v>876</v>
@@ -42031,13 +42032,13 @@
         <v>13</v>
       </c>
       <c r="C42" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4657</v>
+      </c>
+      <c r="E42" t="s">
         <v>4154</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4658</v>
-      </c>
-      <c r="E42" t="s">
-        <v>4155</v>
       </c>
       <c r="F42" t="s">
         <v>572</v>
@@ -42051,13 +42052,13 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
+        <v>4155</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4658</v>
+      </c>
+      <c r="E43" t="s">
         <v>4156</v>
-      </c>
-      <c r="D43" t="s">
-        <v>4659</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4157</v>
       </c>
       <c r="F43" t="s">
         <v>260</v>
@@ -42071,10 +42072,10 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
       <c r="D44" t="s">
-        <v>4660</v>
+        <v>4659</v>
       </c>
       <c r="E44" t="s">
         <v>1414</v>
@@ -42111,10 +42112,10 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="D46" t="s">
-        <v>4661</v>
+        <v>4660</v>
       </c>
       <c r="E46" t="s">
         <v>814</v>
@@ -42131,13 +42132,13 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
+        <v>4159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4661</v>
+      </c>
+      <c r="E47" t="s">
         <v>4160</v>
-      </c>
-      <c r="D47" t="s">
-        <v>4662</v>
-      </c>
-      <c r="E47" t="s">
-        <v>4161</v>
       </c>
       <c r="F47" t="s">
         <v>686</v>
@@ -42151,13 +42152,13 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
+        <v>4161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4662</v>
+      </c>
+      <c r="E48" t="s">
         <v>4162</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4663</v>
-      </c>
-      <c r="E48" t="s">
-        <v>4163</v>
       </c>
       <c r="F48" t="s">
         <v>2316</v>
@@ -42171,16 +42172,16 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
+        <v>4163</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4663</v>
+      </c>
+      <c r="E49" t="s">
         <v>4164</v>
       </c>
-      <c r="D49" t="s">
-        <v>4664</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>4165</v>
-      </c>
-      <c r="F49" t="s">
-        <v>4166</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -42191,13 +42192,13 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
+        <v>4166</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E50" t="s">
         <v>4167</v>
-      </c>
-      <c r="D50" t="s">
-        <v>4665</v>
-      </c>
-      <c r="E50" t="s">
-        <v>4168</v>
       </c>
       <c r="F50" t="s">
         <v>677</v>
@@ -42211,16 +42212,16 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
+        <v>4168</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4665</v>
+      </c>
+      <c r="E51" t="s">
         <v>4169</v>
       </c>
-      <c r="D51" t="s">
-        <v>4666</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>4170</v>
-      </c>
-      <c r="F51" t="s">
-        <v>4171</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -42231,13 +42232,13 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
+        <v>4171</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4666</v>
+      </c>
+      <c r="E52" t="s">
         <v>4172</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4667</v>
-      </c>
-      <c r="E52" t="s">
-        <v>4173</v>
       </c>
       <c r="F52" t="s">
         <v>1496</v>
@@ -42251,10 +42252,10 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="D53" t="s">
-        <v>4668</v>
+        <v>4667</v>
       </c>
       <c r="E53" t="s">
         <v>2366</v>
@@ -42271,10 +42272,10 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="D54" t="s">
-        <v>4669</v>
+        <v>4668</v>
       </c>
       <c r="E54" t="s">
         <v>1435</v>
@@ -42291,10 +42292,10 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="D55" t="s">
-        <v>4670</v>
+        <v>4669</v>
       </c>
       <c r="E55" t="s">
         <v>1426</v>
@@ -42311,16 +42312,16 @@
         <v>10</v>
       </c>
       <c r="C56" t="s">
+        <v>4176</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4670</v>
+      </c>
+      <c r="E56" t="s">
         <v>4177</v>
       </c>
-      <c r="D56" t="s">
-        <v>4671</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>4178</v>
-      </c>
-      <c r="F56" t="s">
-        <v>4179</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -42331,13 +42332,13 @@
         <v>10</v>
       </c>
       <c r="C57" t="s">
+        <v>4179</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4671</v>
+      </c>
+      <c r="E57" t="s">
         <v>4180</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4672</v>
-      </c>
-      <c r="E57" t="s">
-        <v>4181</v>
       </c>
       <c r="F57" t="s">
         <v>383</v>
@@ -42351,13 +42352,13 @@
         <v>10</v>
       </c>
       <c r="C58" t="s">
+        <v>4181</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4672</v>
+      </c>
+      <c r="E58" t="s">
         <v>4182</v>
-      </c>
-      <c r="D58" t="s">
-        <v>4673</v>
-      </c>
-      <c r="E58" t="s">
-        <v>4183</v>
       </c>
       <c r="F58" t="s">
         <v>3255</v>
@@ -42371,13 +42372,13 @@
         <v>10</v>
       </c>
       <c r="C59" t="s">
+        <v>4183</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4673</v>
+      </c>
+      <c r="E59" t="s">
         <v>4184</v>
-      </c>
-      <c r="D59" t="s">
-        <v>4674</v>
-      </c>
-      <c r="E59" t="s">
-        <v>4185</v>
       </c>
       <c r="F59" t="s">
         <v>837</v>
@@ -42391,10 +42392,10 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="D60" t="s">
-        <v>4675</v>
+        <v>4674</v>
       </c>
       <c r="E60" t="s">
         <v>2390</v>
@@ -42411,16 +42412,16 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
+        <v>4186</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4675</v>
+      </c>
+      <c r="E61" t="s">
         <v>4187</v>
       </c>
-      <c r="D61" t="s">
-        <v>4676</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>4188</v>
-      </c>
-      <c r="F61" t="s">
-        <v>4189</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -42431,13 +42432,13 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
+        <v>4189</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4676</v>
+      </c>
+      <c r="E62" t="s">
         <v>4190</v>
-      </c>
-      <c r="D62" t="s">
-        <v>4677</v>
-      </c>
-      <c r="E62" t="s">
-        <v>4191</v>
       </c>
       <c r="F62" t="s">
         <v>2372</v>
@@ -42451,16 +42452,16 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4677</v>
+      </c>
+      <c r="E63" t="s">
         <v>4192</v>
       </c>
-      <c r="D63" t="s">
-        <v>4678</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>4193</v>
-      </c>
-      <c r="F63" t="s">
-        <v>4194</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -42471,13 +42472,13 @@
         <v>9</v>
       </c>
       <c r="C64" t="s">
+        <v>4194</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4678</v>
+      </c>
+      <c r="E64" t="s">
         <v>4195</v>
-      </c>
-      <c r="D64" t="s">
-        <v>4679</v>
-      </c>
-      <c r="E64" t="s">
-        <v>4196</v>
       </c>
       <c r="F64" t="s">
         <v>629</v>
@@ -42491,16 +42492,16 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
+        <v>4196</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4679</v>
+      </c>
+      <c r="E65" t="s">
         <v>4197</v>
       </c>
-      <c r="D65" t="s">
-        <v>4680</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>4198</v>
-      </c>
-      <c r="F65" t="s">
-        <v>4199</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -42511,13 +42512,13 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
+        <v>4199</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4680</v>
+      </c>
+      <c r="E66" t="s">
         <v>4200</v>
-      </c>
-      <c r="D66" t="s">
-        <v>4681</v>
-      </c>
-      <c r="E66" t="s">
-        <v>4201</v>
       </c>
       <c r="F66" t="s">
         <v>3447</v>
@@ -42531,16 +42532,16 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
+        <v>4201</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4681</v>
+      </c>
+      <c r="E67" t="s">
         <v>4202</v>
       </c>
-      <c r="D67" t="s">
-        <v>4682</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>4203</v>
-      </c>
-      <c r="F67" t="s">
-        <v>4204</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
@@ -42551,10 +42552,10 @@
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="D68" t="s">
-        <v>4683</v>
+        <v>4682</v>
       </c>
       <c r="E68" t="s">
         <v>740</v>
@@ -42571,10 +42572,10 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="D69" t="s">
-        <v>4684</v>
+        <v>4683</v>
       </c>
       <c r="E69" t="s">
         <v>2397</v>
@@ -42591,13 +42592,13 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
+        <v>4206</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4684</v>
+      </c>
+      <c r="E70" t="s">
         <v>4207</v>
-      </c>
-      <c r="D70" t="s">
-        <v>4685</v>
-      </c>
-      <c r="E70" t="s">
-        <v>4208</v>
       </c>
       <c r="F70" t="s">
         <v>1395</v>
@@ -42611,16 +42612,16 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
+        <v>4208</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4685</v>
+      </c>
+      <c r="E71" t="s">
         <v>4209</v>
       </c>
-      <c r="D71" t="s">
-        <v>4686</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>4210</v>
-      </c>
-      <c r="F71" t="s">
-        <v>4211</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
@@ -42631,13 +42632,13 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
+        <v>4211</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4686</v>
+      </c>
+      <c r="E72" t="s">
         <v>4212</v>
-      </c>
-      <c r="D72" t="s">
-        <v>4687</v>
-      </c>
-      <c r="E72" t="s">
-        <v>4213</v>
       </c>
       <c r="F72" t="s">
         <v>721</v>
@@ -42651,10 +42652,10 @@
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="D73" t="s">
-        <v>4688</v>
+        <v>4687</v>
       </c>
       <c r="E73" t="s">
         <v>734</v>
@@ -42671,13 +42672,13 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
+        <v>4214</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4688</v>
+      </c>
+      <c r="E74" t="s">
         <v>4215</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4689</v>
-      </c>
-      <c r="E74" t="s">
-        <v>4216</v>
       </c>
       <c r="F74" t="s">
         <v>662</v>
@@ -42691,13 +42692,13 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
+        <v>4216</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4689</v>
+      </c>
+      <c r="E75" t="s">
         <v>4217</v>
-      </c>
-      <c r="D75" t="s">
-        <v>4690</v>
-      </c>
-      <c r="E75" t="s">
-        <v>4218</v>
       </c>
       <c r="F75" t="s">
         <v>698</v>
@@ -42711,13 +42712,13 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
+        <v>4218</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4690</v>
+      </c>
+      <c r="E76" t="s">
         <v>4219</v>
-      </c>
-      <c r="D76" t="s">
-        <v>4691</v>
-      </c>
-      <c r="E76" t="s">
-        <v>4220</v>
       </c>
       <c r="F76" t="s">
         <v>819</v>
@@ -42731,10 +42732,10 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="D77" t="s">
-        <v>4692</v>
+        <v>4691</v>
       </c>
       <c r="E77" t="s">
         <v>2547</v>
@@ -42751,16 +42752,16 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
+        <v>4221</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4692</v>
+      </c>
+      <c r="E78" t="s">
         <v>4222</v>
       </c>
-      <c r="D78" t="s">
-        <v>4693</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>4223</v>
-      </c>
-      <c r="F78" t="s">
-        <v>4224</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
@@ -42771,10 +42772,10 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="D79" t="s">
-        <v>4694</v>
+        <v>4693</v>
       </c>
       <c r="E79" t="s">
         <v>714</v>
@@ -42791,10 +42792,10 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="D80" t="s">
-        <v>4695</v>
+        <v>4694</v>
       </c>
       <c r="E80" t="s">
         <v>725</v>
@@ -42811,10 +42812,10 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="D81" t="s">
-        <v>4696</v>
+        <v>4695</v>
       </c>
       <c r="E81" t="s">
         <v>3325</v>
@@ -42831,16 +42832,16 @@
         <v>8</v>
       </c>
       <c r="C82" t="s">
+        <v>4227</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4696</v>
+      </c>
+      <c r="E82" t="s">
         <v>4228</v>
       </c>
-      <c r="D82" t="s">
-        <v>4697</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>4229</v>
-      </c>
-      <c r="F82" t="s">
-        <v>4230</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
@@ -42851,16 +42852,16 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
+        <v>4230</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4697</v>
+      </c>
+      <c r="E83" t="s">
         <v>4231</v>
       </c>
-      <c r="D83" t="s">
-        <v>4698</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>4232</v>
-      </c>
-      <c r="F83" t="s">
-        <v>4233</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
@@ -42871,13 +42872,13 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4698</v>
+      </c>
+      <c r="E84" t="s">
         <v>4234</v>
-      </c>
-      <c r="D84" t="s">
-        <v>4699</v>
-      </c>
-      <c r="E84" t="s">
-        <v>4235</v>
       </c>
       <c r="F84" t="s">
         <v>801</v>
@@ -42891,13 +42892,13 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4699</v>
+      </c>
+      <c r="E85" t="s">
         <v>4236</v>
-      </c>
-      <c r="D85" t="s">
-        <v>4700</v>
-      </c>
-      <c r="E85" t="s">
-        <v>4237</v>
       </c>
       <c r="F85" t="s">
         <v>1366</v>
@@ -42911,10 +42912,10 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="D86" t="s">
-        <v>4701</v>
+        <v>4700</v>
       </c>
       <c r="E86" t="s">
         <v>2495</v>
@@ -42931,16 +42932,16 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
+        <v>4238</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4701</v>
+      </c>
+      <c r="E87" t="s">
         <v>4239</v>
       </c>
-      <c r="D87" t="s">
-        <v>4702</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>4240</v>
-      </c>
-      <c r="F87" t="s">
-        <v>4241</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
@@ -42951,16 +42952,16 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
+        <v>4241</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4702</v>
+      </c>
+      <c r="E88" t="s">
         <v>4242</v>
       </c>
-      <c r="D88" t="s">
-        <v>4703</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>4243</v>
-      </c>
-      <c r="F88" t="s">
-        <v>4244</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
@@ -42971,13 +42972,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
+        <v>4244</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4703</v>
+      </c>
+      <c r="E89" t="s">
         <v>4245</v>
-      </c>
-      <c r="D89" t="s">
-        <v>4704</v>
-      </c>
-      <c r="E89" t="s">
-        <v>4246</v>
       </c>
       <c r="F89" t="s">
         <v>446</v>
@@ -42991,13 +42992,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
+        <v>4246</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4704</v>
+      </c>
+      <c r="E90" t="s">
         <v>4247</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4705</v>
-      </c>
-      <c r="E90" t="s">
-        <v>4248</v>
       </c>
       <c r="F90" t="s">
         <v>644</v>
@@ -43011,16 +43012,16 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
+        <v>4248</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4705</v>
+      </c>
+      <c r="E91" t="s">
         <v>4249</v>
       </c>
-      <c r="D91" t="s">
-        <v>4706</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>4250</v>
-      </c>
-      <c r="F91" t="s">
-        <v>4251</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
@@ -43031,13 +43032,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
+        <v>4251</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4706</v>
+      </c>
+      <c r="E92" t="s">
         <v>4252</v>
-      </c>
-      <c r="D92" t="s">
-        <v>4707</v>
-      </c>
-      <c r="E92" t="s">
-        <v>4253</v>
       </c>
       <c r="F92" t="s">
         <v>614</v>
@@ -43051,10 +43052,10 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
       <c r="D93" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="E93" t="s">
         <v>672</v>
@@ -43071,10 +43072,10 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="D94" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
       <c r="E94" t="s">
         <v>2443</v>
@@ -43091,13 +43092,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
+        <v>4255</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4709</v>
+      </c>
+      <c r="E95" t="s">
         <v>4256</v>
-      </c>
-      <c r="D95" t="s">
-        <v>4710</v>
-      </c>
-      <c r="E95" t="s">
-        <v>4257</v>
       </c>
       <c r="F95" t="s">
         <v>1461</v>
@@ -43111,10 +43112,10 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="D96" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="E96" t="s">
         <v>3342</v>
@@ -43131,16 +43132,16 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
+        <v>4258</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4711</v>
+      </c>
+      <c r="E97" t="s">
         <v>4259</v>
       </c>
-      <c r="D97" t="s">
-        <v>4712</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>4260</v>
-      </c>
-      <c r="F97" t="s">
-        <v>4261</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
@@ -43151,16 +43152,16 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
+        <v>4261</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4712</v>
+      </c>
+      <c r="E98" t="s">
         <v>4262</v>
       </c>
-      <c r="D98" t="s">
-        <v>4713</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>4263</v>
-      </c>
-      <c r="F98" t="s">
-        <v>4264</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
@@ -43171,10 +43172,10 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="D99" t="s">
-        <v>4714</v>
+        <v>4713</v>
       </c>
       <c r="E99" t="s">
         <v>654</v>
@@ -43191,10 +43192,10 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="D100" t="s">
-        <v>4715</v>
+        <v>4714</v>
       </c>
       <c r="E100" t="s">
         <v>657</v>
@@ -43211,16 +43212,16 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
+        <v>4266</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4715</v>
+      </c>
+      <c r="E101" t="s">
         <v>4267</v>
       </c>
-      <c r="D101" t="s">
-        <v>4716</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>4268</v>
-      </c>
-      <c r="F101" t="s">
-        <v>4269</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
@@ -43231,10 +43232,10 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="D102" t="s">
-        <v>4717</v>
+        <v>4716</v>
       </c>
       <c r="E102" t="s">
         <v>612</v>
@@ -43251,16 +43252,16 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
+        <v>4270</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4717</v>
+      </c>
+      <c r="E103" t="s">
         <v>4271</v>
       </c>
-      <c r="D103" t="s">
-        <v>4718</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>4272</v>
-      </c>
-      <c r="F103" t="s">
-        <v>4273</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
@@ -43271,10 +43272,10 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="D104" t="s">
-        <v>4719</v>
+        <v>4718</v>
       </c>
       <c r="E104" t="s">
         <v>2450</v>
@@ -43291,10 +43292,10 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="D105" t="s">
-        <v>4720</v>
+        <v>4719</v>
       </c>
       <c r="E105" t="s">
         <v>621</v>
@@ -43311,10 +43312,10 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="D106" t="s">
-        <v>4721</v>
+        <v>4720</v>
       </c>
       <c r="E106" t="s">
         <v>2453</v>
@@ -43331,13 +43332,13 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
+        <v>4276</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4721</v>
+      </c>
+      <c r="E107" t="s">
         <v>4277</v>
-      </c>
-      <c r="D107" t="s">
-        <v>4722</v>
-      </c>
-      <c r="E107" t="s">
-        <v>4278</v>
       </c>
       <c r="F107" t="s">
         <v>119</v>
@@ -43351,13 +43352,13 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4722</v>
+      </c>
+      <c r="E108" t="s">
         <v>4279</v>
-      </c>
-      <c r="D108" t="s">
-        <v>4723</v>
-      </c>
-      <c r="E108" t="s">
-        <v>4280</v>
       </c>
       <c r="F108" t="s">
         <v>1573</v>
@@ -43371,10 +43372,10 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="D109" t="s">
-        <v>4724</v>
+        <v>4723</v>
       </c>
       <c r="E109" t="s">
         <v>555</v>
@@ -43391,13 +43392,13 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4724</v>
+      </c>
+      <c r="E110" t="s">
         <v>4282</v>
-      </c>
-      <c r="D110" t="s">
-        <v>4725</v>
-      </c>
-      <c r="E110" t="s">
-        <v>4283</v>
       </c>
       <c r="F110" t="s">
         <v>299</v>
@@ -43411,10 +43412,10 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="D111" t="s">
-        <v>4726</v>
+        <v>4725</v>
       </c>
       <c r="E111" t="s">
         <v>597</v>
@@ -43431,10 +43432,10 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="D112" t="s">
-        <v>4727</v>
+        <v>4726</v>
       </c>
       <c r="E112" t="s">
         <v>576</v>
@@ -43451,10 +43452,10 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="D113" t="s">
-        <v>4728</v>
+        <v>4727</v>
       </c>
       <c r="E113" t="s">
         <v>513</v>
@@ -43471,10 +43472,10 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="D114" t="s">
-        <v>4729</v>
+        <v>4728</v>
       </c>
       <c r="E114" t="s">
         <v>1554</v>
@@ -43491,13 +43492,13 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
+        <v>4287</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4729</v>
+      </c>
+      <c r="E115" t="s">
         <v>4288</v>
-      </c>
-      <c r="D115" t="s">
-        <v>4730</v>
-      </c>
-      <c r="E115" t="s">
-        <v>4289</v>
       </c>
       <c r="F115" t="s">
         <v>497</v>
@@ -43511,10 +43512,10 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="D116" t="s">
-        <v>4731</v>
+        <v>4730</v>
       </c>
       <c r="E116" t="s">
         <v>501</v>
@@ -43531,16 +43532,16 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
+        <v>4290</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4731</v>
+      </c>
+      <c r="E117" t="s">
         <v>4291</v>
       </c>
-      <c r="D117" t="s">
-        <v>4732</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>4292</v>
-      </c>
-      <c r="F117" t="s">
-        <v>4293</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
@@ -43551,10 +43552,10 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="D118" t="s">
-        <v>4733</v>
+        <v>4732</v>
       </c>
       <c r="E118" t="s">
         <v>2456</v>
@@ -43571,10 +43572,10 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="D119" t="s">
-        <v>4734</v>
+        <v>4733</v>
       </c>
       <c r="E119" t="s">
         <v>537</v>
@@ -43591,16 +43592,16 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
+        <v>4295</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4734</v>
+      </c>
+      <c r="E120" t="s">
         <v>4296</v>
       </c>
-      <c r="D120" t="s">
-        <v>4735</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>4297</v>
-      </c>
-      <c r="F120" t="s">
-        <v>4298</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
@@ -43611,10 +43612,10 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="D121" t="s">
-        <v>4736</v>
+        <v>4735</v>
       </c>
       <c r="E121" t="s">
         <v>2482</v>
@@ -43631,10 +43632,10 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
       <c r="D122" t="s">
-        <v>4737</v>
+        <v>4736</v>
       </c>
       <c r="E122" t="s">
         <v>516</v>
@@ -43651,16 +43652,16 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
+        <v>4300</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4737</v>
+      </c>
+      <c r="E123" t="s">
         <v>4301</v>
       </c>
-      <c r="D123" t="s">
-        <v>4738</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>4302</v>
-      </c>
-      <c r="F123" t="s">
-        <v>4303</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
@@ -43671,13 +43672,13 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
+        <v>4303</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4738</v>
+      </c>
+      <c r="E124" t="s">
         <v>4304</v>
-      </c>
-      <c r="D124" t="s">
-        <v>4739</v>
-      </c>
-      <c r="E124" t="s">
-        <v>4305</v>
       </c>
       <c r="F124" t="s">
         <v>503</v>
@@ -43691,13 +43692,13 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4739</v>
+      </c>
+      <c r="E125" t="s">
         <v>4306</v>
-      </c>
-      <c r="D125" t="s">
-        <v>4740</v>
-      </c>
-      <c r="E125" t="s">
-        <v>4307</v>
       </c>
       <c r="F125" t="s">
         <v>683</v>
@@ -43711,16 +43712,16 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
+        <v>4307</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4740</v>
+      </c>
+      <c r="E126" t="s">
         <v>4308</v>
       </c>
-      <c r="D126" t="s">
-        <v>4741</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>4309</v>
-      </c>
-      <c r="F126" t="s">
-        <v>4310</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
@@ -43731,13 +43732,13 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
+        <v>4310</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4741</v>
+      </c>
+      <c r="E127" t="s">
         <v>4311</v>
-      </c>
-      <c r="D127" t="s">
-        <v>4742</v>
-      </c>
-      <c r="E127" t="s">
-        <v>4312</v>
       </c>
       <c r="F127" t="s">
         <v>395</v>
@@ -43751,16 +43752,16 @@
         <v>5</v>
       </c>
       <c r="C128" t="s">
+        <v>4312</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4742</v>
+      </c>
+      <c r="E128" t="s">
         <v>4313</v>
       </c>
-      <c r="D128" t="s">
-        <v>4743</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>4314</v>
-      </c>
-      <c r="F128" t="s">
-        <v>4315</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
@@ -43771,10 +43772,10 @@
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
       <c r="D129" t="s">
-        <v>4744</v>
+        <v>4743</v>
       </c>
       <c r="E129" t="s">
         <v>450</v>
@@ -43791,13 +43792,13 @@
         <v>5</v>
       </c>
       <c r="C130" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4744</v>
+      </c>
+      <c r="E130" t="s">
         <v>4317</v>
-      </c>
-      <c r="D130" t="s">
-        <v>4745</v>
-      </c>
-      <c r="E130" t="s">
-        <v>4318</v>
       </c>
       <c r="F130" t="s">
         <v>730</v>
@@ -43811,13 +43812,13 @@
         <v>5</v>
       </c>
       <c r="C131" t="s">
+        <v>4318</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4745</v>
+      </c>
+      <c r="E131" t="s">
         <v>4319</v>
-      </c>
-      <c r="D131" t="s">
-        <v>4746</v>
-      </c>
-      <c r="E131" t="s">
-        <v>4320</v>
       </c>
       <c r="F131" t="s">
         <v>2592</v>
@@ -43831,13 +43832,13 @@
         <v>5</v>
       </c>
       <c r="C132" t="s">
+        <v>4320</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4746</v>
+      </c>
+      <c r="E132" t="s">
         <v>4321</v>
-      </c>
-      <c r="D132" t="s">
-        <v>4747</v>
-      </c>
-      <c r="E132" t="s">
-        <v>4322</v>
       </c>
       <c r="F132" t="s">
         <v>467</v>
@@ -43851,10 +43852,10 @@
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="D133" t="s">
-        <v>4748</v>
+        <v>4747</v>
       </c>
       <c r="E133" t="s">
         <v>453</v>
@@ -43871,13 +43872,13 @@
         <v>5</v>
       </c>
       <c r="C134" t="s">
+        <v>4323</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4748</v>
+      </c>
+      <c r="E134" t="s">
         <v>4324</v>
-      </c>
-      <c r="D134" t="s">
-        <v>4749</v>
-      </c>
-      <c r="E134" t="s">
-        <v>4325</v>
       </c>
       <c r="F134" t="s">
         <v>674</v>
@@ -43891,13 +43892,13 @@
         <v>5</v>
       </c>
       <c r="C135" t="s">
+        <v>4325</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4749</v>
+      </c>
+      <c r="E135" t="s">
         <v>4326</v>
-      </c>
-      <c r="D135" t="s">
-        <v>4750</v>
-      </c>
-      <c r="E135" t="s">
-        <v>4327</v>
       </c>
       <c r="F135" t="s">
         <v>551</v>
@@ -43911,10 +43912,10 @@
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
       <c r="D136" t="s">
-        <v>4751</v>
+        <v>4750</v>
       </c>
       <c r="E136" t="s">
         <v>411</v>
@@ -43931,13 +43932,13 @@
         <v>5</v>
       </c>
       <c r="C137" t="s">
+        <v>4328</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4751</v>
+      </c>
+      <c r="E137" t="s">
         <v>4329</v>
-      </c>
-      <c r="D137" t="s">
-        <v>4752</v>
-      </c>
-      <c r="E137" t="s">
-        <v>4330</v>
       </c>
       <c r="F137" t="s">
         <v>134</v>
@@ -43951,16 +43952,16 @@
         <v>5</v>
       </c>
       <c r="C138" t="s">
+        <v>4330</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4752</v>
+      </c>
+      <c r="E138" t="s">
         <v>4331</v>
       </c>
-      <c r="D138" t="s">
-        <v>4753</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>4332</v>
-      </c>
-      <c r="F138" t="s">
-        <v>4333</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
@@ -43971,10 +43972,10 @@
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
       <c r="D139" t="s">
-        <v>4754</v>
+        <v>4753</v>
       </c>
       <c r="E139" t="s">
         <v>480</v>
@@ -43991,13 +43992,13 @@
         <v>5</v>
       </c>
       <c r="C140" t="s">
+        <v>4334</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4754</v>
+      </c>
+      <c r="E140" t="s">
         <v>4335</v>
-      </c>
-      <c r="D140" t="s">
-        <v>4755</v>
-      </c>
-      <c r="E140" t="s">
-        <v>4336</v>
       </c>
       <c r="F140" t="s">
         <v>167</v>
@@ -44011,13 +44012,13 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
+        <v>4336</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4755</v>
+      </c>
+      <c r="E141" t="s">
         <v>4337</v>
-      </c>
-      <c r="D141" t="s">
-        <v>4756</v>
-      </c>
-      <c r="E141" t="s">
-        <v>4338</v>
       </c>
       <c r="F141" t="s">
         <v>386</v>
@@ -44031,10 +44032,10 @@
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
       <c r="D142" t="s">
-        <v>4757</v>
+        <v>4756</v>
       </c>
       <c r="E142" t="s">
         <v>2525</v>
@@ -44051,10 +44052,10 @@
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="D143" t="s">
-        <v>4758</v>
+        <v>4757</v>
       </c>
       <c r="E143" t="s">
         <v>405</v>
@@ -44071,10 +44072,10 @@
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="D144" t="s">
-        <v>4759</v>
+        <v>4758</v>
       </c>
       <c r="E144" t="s">
         <v>477</v>
@@ -44091,10 +44092,10 @@
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="D145" t="s">
-        <v>4760</v>
+        <v>4759</v>
       </c>
       <c r="E145" t="s">
         <v>3471</v>
@@ -44111,10 +44112,10 @@
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
       <c r="D146" t="s">
-        <v>4761</v>
+        <v>4760</v>
       </c>
       <c r="E146" t="s">
         <v>471</v>
@@ -44131,13 +44132,13 @@
         <v>5</v>
       </c>
       <c r="C147" t="s">
+        <v>4343</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4761</v>
+      </c>
+      <c r="E147" t="s">
         <v>4344</v>
-      </c>
-      <c r="D147" t="s">
-        <v>4762</v>
-      </c>
-      <c r="E147" t="s">
-        <v>4345</v>
       </c>
       <c r="F147" t="s">
         <v>527</v>
@@ -44151,16 +44152,16 @@
         <v>5</v>
       </c>
       <c r="C148" t="s">
+        <v>4345</v>
+      </c>
+      <c r="D148" t="s">
+        <v>4762</v>
+      </c>
+      <c r="E148" t="s">
         <v>4346</v>
       </c>
-      <c r="D148" t="s">
-        <v>4763</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>4347</v>
-      </c>
-      <c r="F148" t="s">
-        <v>4348</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
@@ -44171,13 +44172,13 @@
         <v>5</v>
       </c>
       <c r="C149" t="s">
+        <v>4348</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4763</v>
+      </c>
+      <c r="E149" t="s">
         <v>4349</v>
-      </c>
-      <c r="D149" t="s">
-        <v>4764</v>
-      </c>
-      <c r="E149" t="s">
-        <v>4350</v>
       </c>
       <c r="F149" t="s">
         <v>86</v>
@@ -44191,13 +44192,13 @@
         <v>5</v>
       </c>
       <c r="C150" t="s">
+        <v>4350</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4764</v>
+      </c>
+      <c r="E150" t="s">
         <v>4351</v>
-      </c>
-      <c r="D150" t="s">
-        <v>4765</v>
-      </c>
-      <c r="E150" t="s">
-        <v>4352</v>
       </c>
       <c r="F150" t="s">
         <v>353</v>
@@ -44211,16 +44212,16 @@
         <v>5</v>
       </c>
       <c r="C151" t="s">
+        <v>4352</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4765</v>
+      </c>
+      <c r="E151" t="s">
         <v>4353</v>
       </c>
-      <c r="D151" t="s">
-        <v>4766</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>4354</v>
-      </c>
-      <c r="F151" t="s">
-        <v>4355</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
@@ -44231,10 +44232,10 @@
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="D152" t="s">
-        <v>4767</v>
+        <v>4766</v>
       </c>
       <c r="E152" t="s">
         <v>2559</v>
@@ -44251,10 +44252,10 @@
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="D153" t="s">
-        <v>4768</v>
+        <v>4767</v>
       </c>
       <c r="E153" t="s">
         <v>3478</v>
@@ -44271,16 +44272,16 @@
         <v>5</v>
       </c>
       <c r="C154" t="s">
+        <v>4357</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4768</v>
+      </c>
+      <c r="E154" t="s">
         <v>4358</v>
       </c>
-      <c r="D154" t="s">
-        <v>4769</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>4359</v>
-      </c>
-      <c r="F154" t="s">
-        <v>4360</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
@@ -44291,10 +44292,10 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="D155" t="s">
-        <v>4770</v>
+        <v>4769</v>
       </c>
       <c r="E155" t="s">
         <v>3493</v>
@@ -44311,16 +44312,16 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
+        <v>4361</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4770</v>
+      </c>
+      <c r="E156" t="s">
         <v>4362</v>
       </c>
-      <c r="D156" t="s">
-        <v>4771</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>4363</v>
-      </c>
-      <c r="F156" t="s">
-        <v>4364</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
@@ -44331,13 +44332,13 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
+        <v>4364</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4771</v>
+      </c>
+      <c r="E157" t="s">
         <v>4365</v>
-      </c>
-      <c r="D157" t="s">
-        <v>4772</v>
-      </c>
-      <c r="E157" t="s">
-        <v>4366</v>
       </c>
       <c r="F157" t="s">
         <v>92</v>
@@ -44351,16 +44352,16 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
+        <v>4366</v>
+      </c>
+      <c r="D158" t="s">
+        <v>4772</v>
+      </c>
+      <c r="E158" t="s">
         <v>4367</v>
       </c>
-      <c r="D158" t="s">
-        <v>4773</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>4368</v>
-      </c>
-      <c r="F158" t="s">
-        <v>4369</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
@@ -44371,16 +44372,16 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="D159" t="s">
-        <v>4774</v>
+        <v>4773</v>
       </c>
       <c r="E159" t="s">
         <v>2577</v>
       </c>
       <c r="F159" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
@@ -44391,10 +44392,10 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="D160" t="s">
-        <v>4775</v>
+        <v>4774</v>
       </c>
       <c r="E160" t="s">
         <v>366</v>
@@ -44411,10 +44412,10 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="D161" t="s">
-        <v>4776</v>
+        <v>4775</v>
       </c>
       <c r="E161" t="s">
         <v>1732</v>
@@ -44431,13 +44432,13 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
+        <v>4373</v>
+      </c>
+      <c r="D162" t="s">
+        <v>4776</v>
+      </c>
+      <c r="E162" t="s">
         <v>4374</v>
-      </c>
-      <c r="D162" t="s">
-        <v>4777</v>
-      </c>
-      <c r="E162" t="s">
-        <v>4375</v>
       </c>
       <c r="F162" t="s">
         <v>2708</v>
@@ -44451,16 +44452,16 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
+        <v>4375</v>
+      </c>
+      <c r="D163" t="s">
+        <v>4777</v>
+      </c>
+      <c r="E163" t="s">
         <v>4376</v>
       </c>
-      <c r="D163" t="s">
-        <v>4778</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>4377</v>
-      </c>
-      <c r="F163" t="s">
-        <v>4378</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
@@ -44471,10 +44472,10 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="D164" t="s">
-        <v>4779</v>
+        <v>4778</v>
       </c>
       <c r="E164" t="s">
         <v>1661</v>
@@ -44491,16 +44492,16 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
+        <v>4379</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4779</v>
+      </c>
+      <c r="E165" t="s">
         <v>4380</v>
       </c>
-      <c r="D165" t="s">
-        <v>4780</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>4381</v>
-      </c>
-      <c r="F165" t="s">
-        <v>4382</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
@@ -44511,13 +44512,13 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4780</v>
+      </c>
+      <c r="E166" t="s">
         <v>4383</v>
-      </c>
-      <c r="D166" t="s">
-        <v>4781</v>
-      </c>
-      <c r="E166" t="s">
-        <v>4384</v>
       </c>
       <c r="F166" t="s">
         <v>795</v>
@@ -44531,13 +44532,13 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
+        <v>4384</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4781</v>
+      </c>
+      <c r="E167" t="s">
         <v>4385</v>
-      </c>
-      <c r="D167" t="s">
-        <v>4782</v>
-      </c>
-      <c r="E167" t="s">
-        <v>4386</v>
       </c>
       <c r="F167" t="s">
         <v>458</v>
@@ -44551,10 +44552,10 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="D168" t="s">
-        <v>4783</v>
+        <v>4782</v>
       </c>
       <c r="E168" t="s">
         <v>324</v>
@@ -44571,16 +44572,16 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
+        <v>4387</v>
+      </c>
+      <c r="D169" t="s">
+        <v>4783</v>
+      </c>
+      <c r="E169" t="s">
         <v>4388</v>
       </c>
-      <c r="D169" t="s">
-        <v>4784</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>4389</v>
-      </c>
-      <c r="F169" t="s">
-        <v>4390</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
@@ -44591,13 +44592,13 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
+        <v>4390</v>
+      </c>
+      <c r="D170" t="s">
+        <v>4784</v>
+      </c>
+      <c r="E170" t="s">
         <v>4391</v>
-      </c>
-      <c r="D170" t="s">
-        <v>4785</v>
-      </c>
-      <c r="E170" t="s">
-        <v>4392</v>
       </c>
       <c r="F170" t="s">
         <v>455</v>
@@ -44611,13 +44612,13 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
+        <v>4392</v>
+      </c>
+      <c r="D171" t="s">
+        <v>4785</v>
+      </c>
+      <c r="E171" t="s">
         <v>4393</v>
-      </c>
-      <c r="D171" t="s">
-        <v>4786</v>
-      </c>
-      <c r="E171" t="s">
-        <v>4394</v>
       </c>
       <c r="F171" t="s">
         <v>533</v>
@@ -44631,10 +44632,10 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="D172" t="s">
-        <v>4787</v>
+        <v>4786</v>
       </c>
       <c r="E172" t="s">
         <v>2586</v>
@@ -44654,10 +44655,10 @@
         <v>2564</v>
       </c>
       <c r="D173" t="s">
-        <v>4788</v>
+        <v>4787</v>
       </c>
       <c r="E173" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
       <c r="F173" t="s">
         <v>2566</v>
@@ -44671,13 +44672,13 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
+        <v>4396</v>
+      </c>
+      <c r="D174" t="s">
+        <v>4788</v>
+      </c>
+      <c r="E174" t="s">
         <v>4397</v>
-      </c>
-      <c r="D174" t="s">
-        <v>4789</v>
-      </c>
-      <c r="E174" t="s">
-        <v>4398</v>
       </c>
       <c r="F174" t="s">
         <v>599</v>
@@ -44691,16 +44692,16 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
+        <v>4398</v>
+      </c>
+      <c r="D175" t="s">
+        <v>4789</v>
+      </c>
+      <c r="E175" t="s">
         <v>4399</v>
       </c>
-      <c r="D175" t="s">
-        <v>4790</v>
-      </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>4400</v>
-      </c>
-      <c r="F175" t="s">
-        <v>4401</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
@@ -44711,10 +44712,10 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="D176" t="s">
-        <v>4791</v>
+        <v>4790</v>
       </c>
       <c r="E176" t="s">
         <v>3556</v>
@@ -44731,16 +44732,16 @@
         <v>4</v>
       </c>
       <c r="C177" t="s">
+        <v>4402</v>
+      </c>
+      <c r="D177" t="s">
+        <v>4791</v>
+      </c>
+      <c r="E177" t="s">
         <v>4403</v>
       </c>
-      <c r="D177" t="s">
-        <v>4792</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>4404</v>
-      </c>
-      <c r="F177" t="s">
-        <v>4405</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
@@ -44751,16 +44752,16 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
+        <v>4405</v>
+      </c>
+      <c r="D178" t="s">
+        <v>4792</v>
+      </c>
+      <c r="E178" t="s">
         <v>4406</v>
       </c>
-      <c r="D178" t="s">
-        <v>4793</v>
-      </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>4407</v>
-      </c>
-      <c r="F178" t="s">
-        <v>4408</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
@@ -44771,10 +44772,10 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="D179" t="s">
-        <v>4794</v>
+        <v>4793</v>
       </c>
       <c r="E179" t="s">
         <v>279</v>
@@ -44791,13 +44792,13 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
+        <v>4409</v>
+      </c>
+      <c r="D180" t="s">
+        <v>4794</v>
+      </c>
+      <c r="E180" t="s">
         <v>4410</v>
-      </c>
-      <c r="D180" t="s">
-        <v>4795</v>
-      </c>
-      <c r="E180" t="s">
-        <v>4411</v>
       </c>
       <c r="F180" t="s">
         <v>659</v>
@@ -44811,10 +44812,10 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="D181" t="s">
-        <v>4796</v>
+        <v>4795</v>
       </c>
       <c r="E181" t="s">
         <v>282</v>
@@ -44831,16 +44832,16 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
+        <v>4412</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4796</v>
+      </c>
+      <c r="E182" t="s">
         <v>4413</v>
       </c>
-      <c r="D182" t="s">
-        <v>4797</v>
-      </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
         <v>4414</v>
-      </c>
-      <c r="F182" t="s">
-        <v>4415</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
@@ -44851,10 +44852,10 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="D183" t="s">
-        <v>4798</v>
+        <v>4797</v>
       </c>
       <c r="E183" t="s">
         <v>3551</v>
@@ -44871,13 +44872,13 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
+        <v>4416</v>
+      </c>
+      <c r="D184" t="s">
+        <v>4798</v>
+      </c>
+      <c r="E184" t="s">
         <v>4417</v>
-      </c>
-      <c r="D184" t="s">
-        <v>4799</v>
-      </c>
-      <c r="E184" t="s">
-        <v>4418</v>
       </c>
       <c r="F184" t="s">
         <v>1509</v>
@@ -44891,13 +44892,13 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
+        <v>4418</v>
+      </c>
+      <c r="D185" t="s">
+        <v>4799</v>
+      </c>
+      <c r="E185" t="s">
         <v>4419</v>
-      </c>
-      <c r="D185" t="s">
-        <v>4800</v>
-      </c>
-      <c r="E185" t="s">
-        <v>4420</v>
       </c>
       <c r="F185" t="s">
         <v>1477</v>
@@ -44911,16 +44912,16 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
+        <v>4420</v>
+      </c>
+      <c r="D186" t="s">
+        <v>4800</v>
+      </c>
+      <c r="E186" t="s">
         <v>4421</v>
       </c>
-      <c r="D186" t="s">
-        <v>4801</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>4422</v>
-      </c>
-      <c r="F186" t="s">
-        <v>4423</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
@@ -44931,13 +44932,13 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
+        <v>4423</v>
+      </c>
+      <c r="D187" t="s">
+        <v>4801</v>
+      </c>
+      <c r="E187" t="s">
         <v>4424</v>
-      </c>
-      <c r="D187" t="s">
-        <v>4802</v>
-      </c>
-      <c r="E187" t="s">
-        <v>4425</v>
       </c>
       <c r="F187" t="s">
         <v>287</v>
@@ -44951,10 +44952,10 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="D188" t="s">
-        <v>4803</v>
+        <v>4802</v>
       </c>
       <c r="E188" t="s">
         <v>2649</v>
@@ -44971,13 +44972,13 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
+        <v>4426</v>
+      </c>
+      <c r="D189" t="s">
+        <v>4803</v>
+      </c>
+      <c r="E189" t="s">
         <v>4427</v>
-      </c>
-      <c r="D189" t="s">
-        <v>4804</v>
-      </c>
-      <c r="E189" t="s">
-        <v>4428</v>
       </c>
       <c r="F189" t="s">
         <v>401</v>
@@ -44991,16 +44992,16 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
+        <v>4428</v>
+      </c>
+      <c r="D190" t="s">
+        <v>4804</v>
+      </c>
+      <c r="E190" t="s">
         <v>4429</v>
       </c>
-      <c r="D190" t="s">
-        <v>4805</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>4430</v>
-      </c>
-      <c r="F190" t="s">
-        <v>4431</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
@@ -45011,10 +45012,10 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="D191" t="s">
-        <v>4806</v>
+        <v>4805</v>
       </c>
       <c r="E191" t="s">
         <v>318</v>
@@ -45031,13 +45032,13 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
+        <v>4432</v>
+      </c>
+      <c r="D192" t="s">
+        <v>4806</v>
+      </c>
+      <c r="E192" t="s">
         <v>4433</v>
-      </c>
-      <c r="D192" t="s">
-        <v>4807</v>
-      </c>
-      <c r="E192" t="s">
-        <v>4434</v>
       </c>
       <c r="F192" t="s">
         <v>766</v>
@@ -45051,13 +45052,13 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
+        <v>4434</v>
+      </c>
+      <c r="D193" t="s">
+        <v>4807</v>
+      </c>
+      <c r="E193" t="s">
         <v>4435</v>
-      </c>
-      <c r="D193" t="s">
-        <v>4808</v>
-      </c>
-      <c r="E193" t="s">
-        <v>4436</v>
       </c>
       <c r="F193" t="s">
         <v>569</v>
@@ -45071,10 +45072,10 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="D194" t="s">
-        <v>4809</v>
+        <v>4808</v>
       </c>
       <c r="E194" t="s">
         <v>3509</v>
@@ -45091,16 +45092,16 @@
         <v>3</v>
       </c>
       <c r="C195" t="s">
+        <v>4437</v>
+      </c>
+      <c r="D195" t="s">
+        <v>4809</v>
+      </c>
+      <c r="E195" t="s">
         <v>4438</v>
       </c>
-      <c r="D195" t="s">
-        <v>4810</v>
-      </c>
-      <c r="E195" t="s">
+      <c r="F195" t="s">
         <v>4439</v>
-      </c>
-      <c r="F195" t="s">
-        <v>4440</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
@@ -45111,10 +45112,10 @@
         <v>3</v>
       </c>
       <c r="C196" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="D196" t="s">
-        <v>4811</v>
+        <v>4810</v>
       </c>
       <c r="E196" t="s">
         <v>1763</v>
@@ -45131,16 +45132,16 @@
         <v>3</v>
       </c>
       <c r="C197" t="s">
+        <v>4441</v>
+      </c>
+      <c r="D197" t="s">
+        <v>4811</v>
+      </c>
+      <c r="E197" t="s">
         <v>4442</v>
       </c>
-      <c r="D197" t="s">
-        <v>4812</v>
-      </c>
-      <c r="E197" t="s">
+      <c r="F197" t="s">
         <v>4443</v>
-      </c>
-      <c r="F197" t="s">
-        <v>4444</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
@@ -45151,16 +45152,16 @@
         <v>3</v>
       </c>
       <c r="C198" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="D198" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
       <c r="E198" t="s">
         <v>3636</v>
       </c>
       <c r="F198" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
@@ -45171,10 +45172,10 @@
         <v>3</v>
       </c>
       <c r="C199" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="D199" t="s">
-        <v>4814</v>
+        <v>4813</v>
       </c>
       <c r="E199" t="s">
         <v>189</v>
@@ -45191,16 +45192,16 @@
         <v>3</v>
       </c>
       <c r="C200" t="s">
+        <v>4447</v>
+      </c>
+      <c r="D200" t="s">
+        <v>4814</v>
+      </c>
+      <c r="E200" t="s">
         <v>4448</v>
       </c>
-      <c r="D200" t="s">
-        <v>4815</v>
-      </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
         <v>4449</v>
-      </c>
-      <c r="F200" t="s">
-        <v>4450</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
@@ -45211,10 +45212,10 @@
         <v>3</v>
       </c>
       <c r="C201" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="D201" t="s">
-        <v>4816</v>
+        <v>4815</v>
       </c>
       <c r="E201" t="s">
         <v>174</v>
@@ -45231,10 +45232,10 @@
         <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="D202" t="s">
-        <v>4817</v>
+        <v>4816</v>
       </c>
       <c r="E202" t="s">
         <v>90</v>
@@ -45251,10 +45252,10 @@
         <v>3</v>
       </c>
       <c r="C203" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="D203" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
       <c r="E203" t="s">
         <v>2667</v>
@@ -45271,10 +45272,10 @@
         <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="D204" t="s">
-        <v>4819</v>
+        <v>4818</v>
       </c>
       <c r="E204" t="s">
         <v>3610</v>
@@ -45291,10 +45292,10 @@
         <v>3</v>
       </c>
       <c r="C205" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="D205" t="s">
-        <v>4820</v>
+        <v>4819</v>
       </c>
       <c r="E205" t="s">
         <v>2702</v>
@@ -45311,10 +45312,10 @@
         <v>3</v>
       </c>
       <c r="C206" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="D206" t="s">
-        <v>4821</v>
+        <v>4820</v>
       </c>
       <c r="E206" t="s">
         <v>3613</v>
@@ -45331,16 +45332,16 @@
         <v>3</v>
       </c>
       <c r="C207" t="s">
+        <v>4456</v>
+      </c>
+      <c r="D207" t="s">
+        <v>4821</v>
+      </c>
+      <c r="E207" t="s">
         <v>4457</v>
       </c>
-      <c r="D207" t="s">
-        <v>4822</v>
-      </c>
-      <c r="E207" t="s">
+      <c r="F207" t="s">
         <v>4458</v>
-      </c>
-      <c r="F207" t="s">
-        <v>4459</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
@@ -45351,16 +45352,16 @@
         <v>3</v>
       </c>
       <c r="C208" t="s">
+        <v>4459</v>
+      </c>
+      <c r="D208" t="s">
+        <v>4822</v>
+      </c>
+      <c r="E208" t="s">
         <v>4460</v>
       </c>
-      <c r="D208" t="s">
-        <v>4823</v>
-      </c>
-      <c r="E208" t="s">
+      <c r="F208" t="s">
         <v>4461</v>
-      </c>
-      <c r="F208" t="s">
-        <v>4462</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.45">
@@ -45371,16 +45372,16 @@
         <v>3</v>
       </c>
       <c r="C209" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="D209" t="s">
-        <v>4824</v>
+        <v>4823</v>
       </c>
       <c r="E209" t="s">
         <v>3754</v>
       </c>
       <c r="F209" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.45">
@@ -45391,16 +45392,16 @@
         <v>3</v>
       </c>
       <c r="C210" t="s">
+        <v>4464</v>
+      </c>
+      <c r="D210" t="s">
+        <v>4824</v>
+      </c>
+      <c r="E210" t="s">
         <v>4465</v>
       </c>
-      <c r="D210" t="s">
-        <v>4825</v>
-      </c>
-      <c r="E210" t="s">
+      <c r="F210" t="s">
         <v>4466</v>
-      </c>
-      <c r="F210" t="s">
-        <v>4467</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
@@ -45411,10 +45412,10 @@
         <v>3</v>
       </c>
       <c r="C211" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="D211" t="s">
-        <v>4826</v>
+        <v>4825</v>
       </c>
       <c r="E211" t="s">
         <v>201</v>
@@ -45431,16 +45432,16 @@
         <v>3</v>
       </c>
       <c r="C212" t="s">
+        <v>4468</v>
+      </c>
+      <c r="D212" t="s">
+        <v>4826</v>
+      </c>
+      <c r="E212" t="s">
         <v>4469</v>
       </c>
-      <c r="D212" t="s">
-        <v>4827</v>
-      </c>
-      <c r="E212" t="s">
+      <c r="F212" t="s">
         <v>4470</v>
-      </c>
-      <c r="F212" t="s">
-        <v>4471</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
@@ -45451,10 +45452,10 @@
         <v>3</v>
       </c>
       <c r="C213" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
       <c r="D213" t="s">
-        <v>4828</v>
+        <v>4827</v>
       </c>
       <c r="E213" t="s">
         <v>222</v>
@@ -45471,16 +45472,16 @@
         <v>3</v>
       </c>
       <c r="C214" t="s">
+        <v>4472</v>
+      </c>
+      <c r="D214" t="s">
+        <v>4828</v>
+      </c>
+      <c r="E214" t="s">
         <v>4473</v>
       </c>
-      <c r="D214" t="s">
-        <v>4829</v>
-      </c>
-      <c r="E214" t="s">
+      <c r="F214" t="s">
         <v>4474</v>
-      </c>
-      <c r="F214" t="s">
-        <v>4475</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.45">
@@ -45491,16 +45492,16 @@
         <v>3</v>
       </c>
       <c r="C215" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="D215" t="s">
-        <v>4830</v>
+        <v>4829</v>
       </c>
       <c r="E215" t="s">
         <v>3616</v>
       </c>
       <c r="F215" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
@@ -45511,10 +45512,10 @@
         <v>3</v>
       </c>
       <c r="C216" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
       <c r="D216" t="s">
-        <v>4831</v>
+        <v>4830</v>
       </c>
       <c r="E216" t="s">
         <v>2678</v>
@@ -45531,16 +45532,16 @@
         <v>3</v>
       </c>
       <c r="C217" t="s">
+        <v>4478</v>
+      </c>
+      <c r="D217" t="s">
+        <v>4831</v>
+      </c>
+      <c r="E217" t="s">
         <v>4479</v>
       </c>
-      <c r="D217" t="s">
-        <v>4832</v>
-      </c>
-      <c r="E217" t="s">
+      <c r="F217" t="s">
         <v>4480</v>
-      </c>
-      <c r="F217" t="s">
-        <v>4481</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
@@ -45551,16 +45552,16 @@
         <v>3</v>
       </c>
       <c r="C218" t="s">
+        <v>4481</v>
+      </c>
+      <c r="D218" t="s">
+        <v>4832</v>
+      </c>
+      <c r="E218" t="s">
         <v>4482</v>
       </c>
-      <c r="D218" t="s">
-        <v>4833</v>
-      </c>
-      <c r="E218" t="s">
+      <c r="F218" t="s">
         <v>4483</v>
-      </c>
-      <c r="F218" t="s">
-        <v>4484</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
@@ -45571,16 +45572,16 @@
         <v>3</v>
       </c>
       <c r="C219" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D219" t="s">
+        <v>4833</v>
+      </c>
+      <c r="E219" t="s">
         <v>4485</v>
       </c>
-      <c r="D219" t="s">
-        <v>4834</v>
-      </c>
-      <c r="E219" t="s">
+      <c r="F219" t="s">
         <v>4486</v>
-      </c>
-      <c r="F219" t="s">
-        <v>4487</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
@@ -45591,16 +45592,16 @@
         <v>3</v>
       </c>
       <c r="C220" t="s">
+        <v>4487</v>
+      </c>
+      <c r="D220" t="s">
+        <v>4834</v>
+      </c>
+      <c r="E220" t="s">
         <v>4488</v>
       </c>
-      <c r="D220" t="s">
-        <v>4835</v>
-      </c>
-      <c r="E220" t="s">
+      <c r="F220" t="s">
         <v>4489</v>
-      </c>
-      <c r="F220" t="s">
-        <v>4490</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.45">
@@ -45611,13 +45612,13 @@
         <v>3</v>
       </c>
       <c r="C221" t="s">
+        <v>4490</v>
+      </c>
+      <c r="D221" t="s">
+        <v>4835</v>
+      </c>
+      <c r="E221" t="s">
         <v>4491</v>
-      </c>
-      <c r="D221" t="s">
-        <v>4836</v>
-      </c>
-      <c r="E221" t="s">
-        <v>4492</v>
       </c>
       <c r="F221" t="s">
         <v>3458</v>
@@ -45631,10 +45632,10 @@
         <v>3</v>
       </c>
       <c r="C222" t="s">
-        <v>4493</v>
+        <v>4492</v>
       </c>
       <c r="D222" t="s">
-        <v>4837</v>
+        <v>4836</v>
       </c>
       <c r="E222" t="s">
         <v>165</v>
@@ -45651,16 +45652,16 @@
         <v>3</v>
       </c>
       <c r="C223" t="s">
+        <v>4493</v>
+      </c>
+      <c r="D223" t="s">
+        <v>4837</v>
+      </c>
+      <c r="E223" t="s">
         <v>4494</v>
       </c>
-      <c r="D223" t="s">
-        <v>4838</v>
-      </c>
-      <c r="E223" t="s">
+      <c r="F223" t="s">
         <v>4495</v>
-      </c>
-      <c r="F223" t="s">
-        <v>4496</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.45">
@@ -45671,10 +45672,10 @@
         <v>3</v>
       </c>
       <c r="C224" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
       <c r="D224" t="s">
-        <v>4839</v>
+        <v>4838</v>
       </c>
       <c r="E224" t="s">
         <v>3646</v>
@@ -45691,10 +45692,10 @@
         <v>3</v>
       </c>
       <c r="C225" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
       <c r="D225" t="s">
-        <v>4840</v>
+        <v>4839</v>
       </c>
       <c r="E225" t="s">
         <v>1802</v>
@@ -45711,10 +45712,10 @@
         <v>3</v>
       </c>
       <c r="C226" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
       <c r="D226" t="s">
-        <v>4841</v>
+        <v>4840</v>
       </c>
       <c r="E226" t="s">
         <v>2745</v>
@@ -45731,10 +45732,10 @@
         <v>3</v>
       </c>
       <c r="C227" t="s">
-        <v>4500</v>
+        <v>4499</v>
       </c>
       <c r="D227" t="s">
-        <v>4842</v>
+        <v>4841</v>
       </c>
       <c r="E227" t="s">
         <v>207</v>
@@ -45751,10 +45752,10 @@
         <v>3</v>
       </c>
       <c r="C228" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
       <c r="D228" t="s">
-        <v>4843</v>
+        <v>4842</v>
       </c>
       <c r="E228" t="s">
         <v>138</v>
@@ -45771,10 +45772,10 @@
         <v>3</v>
       </c>
       <c r="C229" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="D229" t="s">
-        <v>4844</v>
+        <v>4843</v>
       </c>
       <c r="E229" t="s">
         <v>210</v>
@@ -45791,10 +45792,10 @@
         <v>3</v>
       </c>
       <c r="C230" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="D230" t="s">
-        <v>4845</v>
+        <v>4844</v>
       </c>
       <c r="E230" t="s">
         <v>3682</v>
@@ -45811,10 +45812,10 @@
         <v>3</v>
       </c>
       <c r="C231" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
       <c r="D231" t="s">
-        <v>4846</v>
+        <v>4845</v>
       </c>
       <c r="E231" t="s">
         <v>1830</v>
@@ -45831,10 +45832,10 @@
         <v>3</v>
       </c>
       <c r="C232" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
       <c r="D232" t="s">
-        <v>4847</v>
+        <v>4846</v>
       </c>
       <c r="E232" t="s">
         <v>3661</v>
@@ -45851,13 +45852,13 @@
         <v>3</v>
       </c>
       <c r="C233" t="s">
+        <v>4505</v>
+      </c>
+      <c r="D233" t="s">
+        <v>4847</v>
+      </c>
+      <c r="E233" t="s">
         <v>4506</v>
-      </c>
-      <c r="D233" t="s">
-        <v>4848</v>
-      </c>
-      <c r="E233" t="s">
-        <v>4507</v>
       </c>
       <c r="F233" t="s">
         <v>1706</v>
@@ -45871,10 +45872,10 @@
         <v>3</v>
       </c>
       <c r="C234" t="s">
-        <v>4508</v>
+        <v>4507</v>
       </c>
       <c r="D234" t="s">
-        <v>4849</v>
+        <v>4848</v>
       </c>
       <c r="E234" t="s">
         <v>237</v>
@@ -45891,16 +45892,16 @@
         <v>3</v>
       </c>
       <c r="C235" t="s">
+        <v>4508</v>
+      </c>
+      <c r="D235" t="s">
+        <v>4849</v>
+      </c>
+      <c r="E235" t="s">
         <v>4509</v>
       </c>
-      <c r="D235" t="s">
-        <v>4850</v>
-      </c>
-      <c r="E235" t="s">
+      <c r="F235" t="s">
         <v>4510</v>
-      </c>
-      <c r="F235" t="s">
-        <v>4511</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.45">
@@ -45911,10 +45912,10 @@
         <v>3</v>
       </c>
       <c r="C236" t="s">
-        <v>4512</v>
+        <v>4511</v>
       </c>
       <c r="D236" t="s">
-        <v>4851</v>
+        <v>4850</v>
       </c>
       <c r="E236" t="s">
         <v>2764</v>
@@ -45931,13 +45932,13 @@
         <v>3</v>
       </c>
       <c r="C237" t="s">
+        <v>4512</v>
+      </c>
+      <c r="D237" t="s">
+        <v>4851</v>
+      </c>
+      <c r="E237" t="s">
         <v>4513</v>
-      </c>
-      <c r="D237" t="s">
-        <v>4852</v>
-      </c>
-      <c r="E237" t="s">
-        <v>4514</v>
       </c>
       <c r="F237" t="s">
         <v>290</v>
@@ -45951,16 +45952,16 @@
         <v>3</v>
       </c>
       <c r="C238" t="s">
+        <v>4514</v>
+      </c>
+      <c r="D238" t="s">
+        <v>4852</v>
+      </c>
+      <c r="E238" t="s">
         <v>4515</v>
       </c>
-      <c r="D238" t="s">
-        <v>4853</v>
-      </c>
-      <c r="E238" t="s">
+      <c r="F238" t="s">
         <v>4516</v>
-      </c>
-      <c r="F238" t="s">
-        <v>4517</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.45">
@@ -45971,10 +45972,10 @@
         <v>3</v>
       </c>
       <c r="C239" t="s">
-        <v>4518</v>
+        <v>4517</v>
       </c>
       <c r="D239" t="s">
-        <v>4854</v>
+        <v>4853</v>
       </c>
       <c r="E239" t="s">
         <v>2767</v>
@@ -45991,16 +45992,16 @@
         <v>3</v>
       </c>
       <c r="C240" t="s">
+        <v>4518</v>
+      </c>
+      <c r="D240" t="s">
+        <v>4854</v>
+      </c>
+      <c r="E240" t="s">
         <v>4519</v>
       </c>
-      <c r="D240" t="s">
-        <v>4855</v>
-      </c>
-      <c r="E240" t="s">
+      <c r="F240" t="s">
         <v>4520</v>
-      </c>
-      <c r="F240" t="s">
-        <v>4521</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.45">
@@ -46011,10 +46012,10 @@
         <v>3</v>
       </c>
       <c r="C241" t="s">
-        <v>4522</v>
+        <v>4521</v>
       </c>
       <c r="D241" t="s">
-        <v>4856</v>
+        <v>4855</v>
       </c>
       <c r="E241" t="s">
         <v>2749</v>
@@ -46031,16 +46032,16 @@
         <v>3</v>
       </c>
       <c r="C242" t="s">
+        <v>4522</v>
+      </c>
+      <c r="D242" t="s">
+        <v>4856</v>
+      </c>
+      <c r="E242" t="s">
         <v>4523</v>
       </c>
-      <c r="D242" t="s">
-        <v>4857</v>
-      </c>
-      <c r="E242" t="s">
+      <c r="F242" t="s">
         <v>4524</v>
-      </c>
-      <c r="F242" t="s">
-        <v>4525</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.45">
@@ -46051,16 +46052,16 @@
         <v>3</v>
       </c>
       <c r="C243" t="s">
+        <v>4525</v>
+      </c>
+      <c r="D243" t="s">
+        <v>4857</v>
+      </c>
+      <c r="E243" t="s">
         <v>4526</v>
       </c>
-      <c r="D243" t="s">
-        <v>4858</v>
-      </c>
-      <c r="E243" t="s">
+      <c r="F243" t="s">
         <v>4527</v>
-      </c>
-      <c r="F243" t="s">
-        <v>4528</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.45">
@@ -46071,10 +46072,10 @@
         <v>3</v>
       </c>
       <c r="C244" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="D244" t="s">
-        <v>4859</v>
+        <v>4858</v>
       </c>
       <c r="E244" t="s">
         <v>234</v>
@@ -46091,16 +46092,16 @@
         <v>3</v>
       </c>
       <c r="C245" t="s">
+        <v>4529</v>
+      </c>
+      <c r="D245" t="s">
+        <v>4859</v>
+      </c>
+      <c r="E245" t="s">
         <v>4530</v>
       </c>
-      <c r="D245" t="s">
-        <v>4860</v>
-      </c>
-      <c r="E245" t="s">
+      <c r="F245" t="s">
         <v>4531</v>
-      </c>
-      <c r="F245" t="s">
-        <v>4532</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.45">
@@ -46111,16 +46112,16 @@
         <v>3</v>
       </c>
       <c r="C246" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
       <c r="D246" t="s">
-        <v>4861</v>
+        <v>4860</v>
       </c>
       <c r="E246" t="s">
         <v>96</v>
       </c>
       <c r="F246" t="s">
-        <v>4534</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.45">
@@ -46131,16 +46132,16 @@
         <v>3</v>
       </c>
       <c r="C247" t="s">
+        <v>4534</v>
+      </c>
+      <c r="D247" t="s">
+        <v>4861</v>
+      </c>
+      <c r="E247" t="s">
         <v>4535</v>
       </c>
-      <c r="D247" t="s">
-        <v>4862</v>
-      </c>
-      <c r="E247" t="s">
+      <c r="F247" t="s">
         <v>4536</v>
-      </c>
-      <c r="F247" t="s">
-        <v>4537</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.45">
@@ -46151,10 +46152,10 @@
         <v>3</v>
       </c>
       <c r="C248" t="s">
-        <v>4538</v>
+        <v>4537</v>
       </c>
       <c r="D248" t="s">
-        <v>4863</v>
+        <v>4862</v>
       </c>
       <c r="E248" t="s">
         <v>2792</v>
@@ -46171,16 +46172,16 @@
         <v>3</v>
       </c>
       <c r="C249" t="s">
+        <v>4538</v>
+      </c>
+      <c r="D249" t="s">
+        <v>4863</v>
+      </c>
+      <c r="E249" t="s">
         <v>4539</v>
       </c>
-      <c r="D249" t="s">
-        <v>4864</v>
-      </c>
-      <c r="E249" t="s">
+      <c r="F249" t="s">
         <v>4540</v>
-      </c>
-      <c r="F249" t="s">
-        <v>4541</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.45">
@@ -46191,10 +46192,10 @@
         <v>3</v>
       </c>
       <c r="C250" t="s">
-        <v>4542</v>
+        <v>4541</v>
       </c>
       <c r="D250" t="s">
-        <v>4865</v>
+        <v>4864</v>
       </c>
       <c r="E250" t="s">
         <v>240</v>
@@ -46211,16 +46212,16 @@
         <v>3</v>
       </c>
       <c r="C251" t="s">
-        <v>4543</v>
+        <v>4542</v>
       </c>
       <c r="D251" t="s">
-        <v>4866</v>
+        <v>4865</v>
       </c>
       <c r="E251" t="s">
         <v>2801</v>
       </c>
       <c r="F251" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.45">
@@ -46231,16 +46232,16 @@
         <v>3</v>
       </c>
       <c r="C252" t="s">
+        <v>4544</v>
+      </c>
+      <c r="D252" t="s">
+        <v>4866</v>
+      </c>
+      <c r="E252" t="s">
         <v>4545</v>
       </c>
-      <c r="D252" t="s">
-        <v>4867</v>
-      </c>
-      <c r="E252" t="s">
+      <c r="F252" t="s">
         <v>4546</v>
-      </c>
-      <c r="F252" t="s">
-        <v>4547</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.45">
@@ -46251,10 +46252,10 @@
         <v>3</v>
       </c>
       <c r="C253" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
       <c r="D253" t="s">
-        <v>4868</v>
+        <v>4867</v>
       </c>
       <c r="E253" t="s">
         <v>3700</v>
@@ -46271,10 +46272,10 @@
         <v>3</v>
       </c>
       <c r="C254" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
       <c r="D254" t="s">
-        <v>4869</v>
+        <v>4868</v>
       </c>
       <c r="E254" t="s">
         <v>216</v>
@@ -46291,10 +46292,10 @@
         <v>3</v>
       </c>
       <c r="C255" t="s">
-        <v>4550</v>
+        <v>4549</v>
       </c>
       <c r="D255" t="s">
-        <v>4870</v>
+        <v>4869</v>
       </c>
       <c r="E255" t="s">
         <v>2787</v>
@@ -46311,10 +46312,10 @@
         <v>3</v>
       </c>
       <c r="C256" t="s">
-        <v>4551</v>
+        <v>4550</v>
       </c>
       <c r="D256" t="s">
-        <v>4871</v>
+        <v>4870</v>
       </c>
       <c r="E256" t="s">
         <v>2675</v>
@@ -46331,10 +46332,10 @@
         <v>3</v>
       </c>
       <c r="C257" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
       <c r="D257" t="s">
-        <v>4872</v>
+        <v>4871</v>
       </c>
       <c r="E257" t="s">
         <v>3504</v>
@@ -46351,10 +46352,10 @@
         <v>3</v>
       </c>
       <c r="C258" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
       <c r="D258" t="s">
-        <v>4873</v>
+        <v>4872</v>
       </c>
       <c r="E258" t="s">
         <v>123</v>
@@ -46371,10 +46372,10 @@
         <v>3</v>
       </c>
       <c r="C259" t="s">
-        <v>4554</v>
+        <v>4553</v>
       </c>
       <c r="D259" t="s">
-        <v>4874</v>
+        <v>4873</v>
       </c>
       <c r="E259" t="s">
         <v>114</v>
@@ -46391,16 +46392,16 @@
         <v>3</v>
       </c>
       <c r="C260" t="s">
+        <v>4554</v>
+      </c>
+      <c r="D260" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E260" t="s">
         <v>4555</v>
       </c>
-      <c r="D260" t="s">
-        <v>4875</v>
-      </c>
-      <c r="E260" t="s">
+      <c r="F260" t="s">
         <v>4556</v>
-      </c>
-      <c r="F260" t="s">
-        <v>4557</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.45">
@@ -46411,16 +46412,16 @@
         <v>3</v>
       </c>
       <c r="C261" t="s">
+        <v>4557</v>
+      </c>
+      <c r="D261" t="s">
+        <v>4875</v>
+      </c>
+      <c r="E261" t="s">
         <v>4558</v>
       </c>
-      <c r="D261" t="s">
-        <v>4876</v>
-      </c>
-      <c r="E261" t="s">
+      <c r="F261" t="s">
         <v>4559</v>
-      </c>
-      <c r="F261" t="s">
-        <v>4560</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.45">
@@ -46431,16 +46432,16 @@
         <v>3</v>
       </c>
       <c r="C262" t="s">
-        <v>4561</v>
+        <v>4560</v>
       </c>
       <c r="D262" t="s">
-        <v>4877</v>
+        <v>4876</v>
       </c>
       <c r="E262" t="s">
         <v>2773</v>
       </c>
       <c r="F262" t="s">
-        <v>4562</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.45">
@@ -46451,10 +46452,10 @@
         <v>3</v>
       </c>
       <c r="C263" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
       <c r="D263" t="s">
-        <v>4878</v>
+        <v>4877</v>
       </c>
       <c r="E263" t="s">
         <v>204</v>
@@ -46471,16 +46472,16 @@
         <v>3</v>
       </c>
       <c r="C264" t="s">
+        <v>4563</v>
+      </c>
+      <c r="D264" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E264" t="s">
         <v>4564</v>
       </c>
-      <c r="D264" t="s">
-        <v>4879</v>
-      </c>
-      <c r="E264" t="s">
+      <c r="F264" t="s">
         <v>4565</v>
-      </c>
-      <c r="F264" t="s">
-        <v>4566</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.45">
@@ -46491,10 +46492,10 @@
         <v>3</v>
       </c>
       <c r="C265" t="s">
-        <v>4567</v>
+        <v>4566</v>
       </c>
       <c r="D265" t="s">
-        <v>4880</v>
+        <v>4879</v>
       </c>
       <c r="E265" t="s">
         <v>3654</v>
@@ -46511,10 +46512,10 @@
         <v>3</v>
       </c>
       <c r="C266" t="s">
-        <v>4568</v>
+        <v>4567</v>
       </c>
       <c r="D266" t="s">
-        <v>4881</v>
+        <v>4880</v>
       </c>
       <c r="E266" t="s">
         <v>153</v>
@@ -46531,16 +46532,16 @@
         <v>2</v>
       </c>
       <c r="C267" t="s">
+        <v>4568</v>
+      </c>
+      <c r="D267" t="s">
+        <v>4881</v>
+      </c>
+      <c r="E267" t="s">
         <v>4569</v>
       </c>
-      <c r="D267" t="s">
-        <v>4882</v>
-      </c>
-      <c r="E267" t="s">
+      <c r="F267" t="s">
         <v>4570</v>
-      </c>
-      <c r="F267" t="s">
-        <v>4571</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.45">
@@ -46551,16 +46552,16 @@
         <v>2</v>
       </c>
       <c r="C268" t="s">
+        <v>4571</v>
+      </c>
+      <c r="D268" t="s">
+        <v>4882</v>
+      </c>
+      <c r="E268" t="s">
         <v>4572</v>
       </c>
-      <c r="D268" t="s">
-        <v>4883</v>
-      </c>
-      <c r="E268" t="s">
+      <c r="F268" t="s">
         <v>4573</v>
-      </c>
-      <c r="F268" t="s">
-        <v>4574</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.45">
@@ -46571,16 +46572,16 @@
         <v>2</v>
       </c>
       <c r="C269" t="s">
+        <v>4574</v>
+      </c>
+      <c r="D269" t="s">
+        <v>4883</v>
+      </c>
+      <c r="E269" t="s">
         <v>4575</v>
       </c>
-      <c r="D269" t="s">
-        <v>4884</v>
-      </c>
-      <c r="E269" t="s">
+      <c r="F269" t="s">
         <v>4576</v>
-      </c>
-      <c r="F269" t="s">
-        <v>4577</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.45">
@@ -46591,16 +46592,16 @@
         <v>2</v>
       </c>
       <c r="C270" t="s">
+        <v>4577</v>
+      </c>
+      <c r="D270" t="s">
+        <v>4884</v>
+      </c>
+      <c r="E270" t="s">
         <v>4578</v>
       </c>
-      <c r="D270" t="s">
-        <v>4885</v>
-      </c>
-      <c r="E270" t="s">
+      <c r="F270" t="s">
         <v>4579</v>
-      </c>
-      <c r="F270" t="s">
-        <v>4580</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.45">
@@ -46611,16 +46612,16 @@
         <v>2</v>
       </c>
       <c r="C271" t="s">
+        <v>4580</v>
+      </c>
+      <c r="D271" t="s">
+        <v>4885</v>
+      </c>
+      <c r="E271" t="s">
         <v>4581</v>
       </c>
-      <c r="D271" t="s">
-        <v>4886</v>
-      </c>
-      <c r="E271" t="s">
+      <c r="F271" t="s">
         <v>4582</v>
-      </c>
-      <c r="F271" t="s">
-        <v>4583</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.45">
@@ -46631,16 +46632,16 @@
         <v>2</v>
       </c>
       <c r="C272" t="s">
+        <v>4583</v>
+      </c>
+      <c r="D272" t="s">
+        <v>4886</v>
+      </c>
+      <c r="E272" t="s">
         <v>4584</v>
       </c>
-      <c r="D272" t="s">
-        <v>4887</v>
-      </c>
-      <c r="E272" t="s">
+      <c r="F272" t="s">
         <v>4585</v>
-      </c>
-      <c r="F272" t="s">
-        <v>4586</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.45">
@@ -46651,16 +46652,16 @@
         <v>2</v>
       </c>
       <c r="C273" t="s">
+        <v>4586</v>
+      </c>
+      <c r="D273" t="s">
+        <v>4887</v>
+      </c>
+      <c r="E273" t="s">
         <v>4587</v>
       </c>
-      <c r="D273" t="s">
-        <v>4888</v>
-      </c>
-      <c r="E273" t="s">
+      <c r="F273" t="s">
         <v>4588</v>
-      </c>
-      <c r="F273" t="s">
-        <v>4589</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.45">
@@ -46671,16 +46672,16 @@
         <v>2</v>
       </c>
       <c r="C274" t="s">
+        <v>4589</v>
+      </c>
+      <c r="D274" t="s">
+        <v>4888</v>
+      </c>
+      <c r="E274" t="s">
         <v>4590</v>
       </c>
-      <c r="D274" t="s">
-        <v>4889</v>
-      </c>
-      <c r="E274" t="s">
+      <c r="F274" t="s">
         <v>4591</v>
-      </c>
-      <c r="F274" t="s">
-        <v>4592</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.45">
@@ -46691,16 +46692,16 @@
         <v>2</v>
       </c>
       <c r="C275" t="s">
+        <v>4592</v>
+      </c>
+      <c r="D275" t="s">
+        <v>4889</v>
+      </c>
+      <c r="E275" t="s">
         <v>4593</v>
       </c>
-      <c r="D275" t="s">
-        <v>4890</v>
-      </c>
-      <c r="E275" t="s">
+      <c r="F275" t="s">
         <v>4594</v>
-      </c>
-      <c r="F275" t="s">
-        <v>4595</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.45">
@@ -46711,10 +46712,10 @@
         <v>2</v>
       </c>
       <c r="C276" t="s">
-        <v>4596</v>
+        <v>4595</v>
       </c>
       <c r="D276" t="s">
-        <v>4891</v>
+        <v>4890</v>
       </c>
       <c r="E276" t="s">
         <v>3748</v>
@@ -46731,16 +46732,16 @@
         <v>2</v>
       </c>
       <c r="C277" t="s">
+        <v>4596</v>
+      </c>
+      <c r="D277" t="s">
+        <v>4891</v>
+      </c>
+      <c r="E277" t="s">
         <v>4597</v>
       </c>
-      <c r="D277" t="s">
-        <v>4892</v>
-      </c>
-      <c r="E277" t="s">
+      <c r="F277" t="s">
         <v>4598</v>
-      </c>
-      <c r="F277" t="s">
-        <v>4599</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.45">
@@ -46751,16 +46752,16 @@
         <v>2</v>
       </c>
       <c r="C278" t="s">
+        <v>4599</v>
+      </c>
+      <c r="D278" t="s">
+        <v>4892</v>
+      </c>
+      <c r="E278" t="s">
         <v>4600</v>
       </c>
-      <c r="D278" t="s">
-        <v>4893</v>
-      </c>
-      <c r="E278" t="s">
+      <c r="F278" t="s">
         <v>4601</v>
-      </c>
-      <c r="F278" t="s">
-        <v>4602</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.45">
@@ -46771,16 +46772,16 @@
         <v>2</v>
       </c>
       <c r="C279" t="s">
+        <v>4602</v>
+      </c>
+      <c r="D279" t="s">
+        <v>4893</v>
+      </c>
+      <c r="E279" t="s">
         <v>4603</v>
       </c>
-      <c r="D279" t="s">
-        <v>4894</v>
-      </c>
-      <c r="E279" t="s">
+      <c r="F279" t="s">
         <v>4604</v>
-      </c>
-      <c r="F279" t="s">
-        <v>4605</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.45">
@@ -46791,16 +46792,16 @@
         <v>2</v>
       </c>
       <c r="C280" t="s">
+        <v>4605</v>
+      </c>
+      <c r="D280" t="s">
+        <v>4894</v>
+      </c>
+      <c r="E280" t="s">
         <v>4606</v>
       </c>
-      <c r="D280" t="s">
-        <v>4895</v>
-      </c>
-      <c r="E280" t="s">
+      <c r="F280" t="s">
         <v>4607</v>
-      </c>
-      <c r="F280" t="s">
-        <v>4608</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.45">
@@ -46811,16 +46812,16 @@
         <v>2</v>
       </c>
       <c r="C281" t="s">
+        <v>4608</v>
+      </c>
+      <c r="D281" t="s">
+        <v>4895</v>
+      </c>
+      <c r="E281" t="s">
         <v>4609</v>
       </c>
-      <c r="D281" t="s">
-        <v>4896</v>
-      </c>
-      <c r="E281" t="s">
+      <c r="F281" t="s">
         <v>4610</v>
-      </c>
-      <c r="F281" t="s">
-        <v>4611</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.45">
@@ -46831,10 +46832,10 @@
         <v>2</v>
       </c>
       <c r="C282" t="s">
-        <v>4612</v>
+        <v>4611</v>
       </c>
       <c r="D282" t="s">
-        <v>4897</v>
+        <v>4896</v>
       </c>
       <c r="E282" t="s">
         <v>48</v>
@@ -46851,16 +46852,16 @@
         <v>2</v>
       </c>
       <c r="C283" t="s">
+        <v>4612</v>
+      </c>
+      <c r="D283" t="s">
+        <v>4897</v>
+      </c>
+      <c r="E283" t="s">
         <v>4613</v>
       </c>
-      <c r="D283" t="s">
-        <v>4898</v>
-      </c>
-      <c r="E283" t="s">
+      <c r="F283" t="s">
         <v>4614</v>
-      </c>
-      <c r="F283" t="s">
-        <v>4615</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.45">
@@ -46871,16 +46872,16 @@
         <v>2</v>
       </c>
       <c r="C284" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D284" t="s">
+        <v>4898</v>
+      </c>
+      <c r="E284" t="s">
         <v>4616</v>
       </c>
-      <c r="D284" t="s">
-        <v>4899</v>
-      </c>
-      <c r="E284" t="s">
+      <c r="F284" t="s">
         <v>4617</v>
-      </c>
-      <c r="F284" t="s">
-        <v>4618</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.45">
@@ -46891,10 +46892,10 @@
         <v>2</v>
       </c>
       <c r="C285" t="s">
-        <v>4619</v>
+        <v>4618</v>
       </c>
       <c r="D285" t="s">
-        <v>4900</v>
+        <v>4899</v>
       </c>
       <c r="E285" t="s">
         <v>2851</v>
